--- a/results/DeterministicUSM/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>351.0599195584514</v>
+        <v>133.3103305997239</v>
       </c>
       <c r="H2">
-        <v>103.5093556160677</v>
+        <v>42.62853781351005</v>
       </c>
       <c r="I2">
-        <v>247.5505639423837</v>
+        <v>90.68179278621385</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>316.7745150168381</v>
+        <v>192.6170794479679</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>0.7814724739748247</v>
+        <v>0.4707879127131608</v>
       </c>
       <c r="O2">
-        <v>412.1685762400243</v>
+        <v>230.7939909959881</v>
       </c>
       <c r="P2">
-        <v>95.39406122318621</v>
+        <v>38.17691154802023</v>
       </c>
       <c r="Q2">
-        <v>1.463416106107962</v>
+        <v>1.799294575603394</v>
       </c>
       <c r="R2">
-        <v>177.1733093957784</v>
+        <v>123.9255695863245</v>
       </c>
       <c r="S2">
-        <v>4.320694296426954</v>
+        <v>6.045381400370417</v>
       </c>
       <c r="T2">
-        <v>3.391576707912155</v>
+        <v>3.127255529685903</v>
       </c>
       <c r="U2">
-        <v>1.221294918843092</v>
+        <v>1.140155792337516</v>
       </c>
       <c r="V2">
-        <v>121.1351138757576</v>
+        <v>42.07861847926152</v>
       </c>
       <c r="W2">
-        <v>230.669042213386</v>
+        <v>387.5378133695559</v>
       </c>
       <c r="X2">
         <v>478.2196061557697</v>
       </c>
       <c r="Y2">
-        <v>161.4450911389317</v>
+        <v>285.6025267078019</v>
       </c>
       <c r="Z2">
-        <v>1.428777057178429</v>
+        <v>1.356913112208014</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>376.631025474842</v>
+        <v>194.9542768720488</v>
       </c>
       <c r="H3">
-        <v>66.03306342930213</v>
+        <v>48.67539604528287</v>
       </c>
       <c r="I3">
-        <v>310.5979620455398</v>
+        <v>146.2788808267659</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>378.5815993689988</v>
+        <v>257.5081828504664</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.8204254051523614</v>
+        <v>0.5680552719045406</v>
       </c>
       <c r="O3">
-        <v>467.5536963215355</v>
+        <v>283.2419598259677</v>
       </c>
       <c r="P3">
-        <v>88.97209695253665</v>
+        <v>25.7337769755013</v>
       </c>
       <c r="Q3">
-        <v>1.659191397386743</v>
+        <v>2.39849710587713</v>
       </c>
       <c r="R3">
-        <v>230.9598614978909</v>
+        <v>195.785793251439</v>
       </c>
       <c r="S3">
-        <v>5.255059870859943</v>
+        <v>11.00662215638286</v>
       </c>
       <c r="T3">
-        <v>5.703673370811874</v>
+        <v>4.005191384384057</v>
       </c>
       <c r="U3">
-        <v>1.741110418290747</v>
+        <v>1.387591365741651</v>
       </c>
       <c r="V3">
-        <v>195.6271073571282</v>
+        <v>78.73732155027608</v>
       </c>
       <c r="W3">
-        <v>167.7676446036134</v>
+        <v>332.0867258223873</v>
       </c>
       <c r="X3">
         <v>478.3656066491532</v>
       </c>
       <c r="Y3">
-        <v>99.78400728015441</v>
+        <v>220.8574237986868</v>
       </c>
       <c r="Z3">
-        <v>1.681307948803735</v>
+        <v>1.503624918332321</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>335.295446558589</v>
+        <v>204.0479061249293</v>
       </c>
       <c r="H4">
-        <v>78.05969253534364</v>
+        <v>48.08363079050345</v>
       </c>
       <c r="I4">
-        <v>257.2357540232454</v>
+        <v>155.9642753344258</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>445.7972018263266</v>
+        <v>259.6985395990607</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.5770241557582929</v>
+        <v>0.6005589233393978</v>
       </c>
       <c r="O4">
-        <v>521.2717009190546</v>
+        <v>278.7605122904465</v>
       </c>
       <c r="P4">
-        <v>75.47449909272805</v>
+        <v>19.06197269138574</v>
       </c>
       <c r="Q4">
-        <v>1.932476565865139</v>
+        <v>2.682657642422174</v>
       </c>
       <c r="R4">
-        <v>299.9445010092199</v>
+        <v>208.561792878872</v>
       </c>
       <c r="S4">
-        <v>6.906593712912485</v>
+        <v>14.62390681193351</v>
       </c>
       <c r="T4">
-        <v>4.295372370404546</v>
+        <v>4.243604377838059</v>
       </c>
       <c r="U4">
-        <v>1.457538250258916</v>
+        <v>1.445412997235509</v>
       </c>
       <c r="V4">
-        <v>143.4607663495316</v>
+        <v>86.46357043555868</v>
       </c>
       <c r="W4">
-        <v>295.1755372833719</v>
+        <v>396.4470159721914</v>
       </c>
       <c r="X4">
         <v>552.4112913066173</v>
       </c>
       <c r="Y4">
-        <v>106.6140894802907</v>
+        <v>292.7127517075565</v>
       </c>
       <c r="Z4">
-        <v>2.768635353190723</v>
+        <v>1.354389290044575</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>363.6713154784999</v>
+        <v>261.9110173973</v>
       </c>
       <c r="H5">
-        <v>109.1429981989417</v>
+        <v>80.23438538652124</v>
       </c>
       <c r="I5">
-        <v>254.5283172795582</v>
+        <v>181.6766320107788</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>387.1730273903371</v>
+        <v>266.351210536168</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.6574019863810135</v>
+        <v>0.6820942606007373</v>
       </c>
       <c r="O5">
-        <v>450.4232113619458</v>
+        <v>299.4720256054616</v>
       </c>
       <c r="P5">
-        <v>63.25018397160873</v>
+        <v>33.12081506929357</v>
       </c>
       <c r="Q5">
-        <v>1.963089574247603</v>
+        <v>2.201859070744191</v>
       </c>
       <c r="R5">
-        <v>263.0072506664292</v>
+        <v>193.423843445403</v>
       </c>
       <c r="S5">
-        <v>7.121294881357633</v>
+        <v>9.041807243539221</v>
       </c>
       <c r="T5">
-        <v>3.332062720282007</v>
+        <v>3.264323844889813</v>
       </c>
       <c r="U5">
-        <v>1.203591547741482</v>
+        <v>1.18305264936454</v>
       </c>
       <c r="V5">
-        <v>123.1647271521481</v>
+        <v>86.75512980911931</v>
       </c>
       <c r="W5">
-        <v>269.0453328926072</v>
+        <v>341.8970181613865</v>
       </c>
       <c r="X5">
         <v>523.5736501721653</v>
       </c>
       <c r="Y5">
-        <v>136.4006227818282</v>
+        <v>257.2224396359974</v>
       </c>
       <c r="Z5">
-        <v>1.972464109074803</v>
+        <v>1.329188147990566</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>387.7602158821434</v>
+        <v>180.1032396578179</v>
       </c>
       <c r="H6">
-        <v>107.7117285537173</v>
+        <v>77.40057842070854</v>
       </c>
       <c r="I6">
-        <v>280.0484873284261</v>
+        <v>102.7026612371094</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>407.4759859994304</v>
+        <v>245.8956033677208</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.6872760529471239</v>
+        <v>0.4176677412305102</v>
       </c>
       <c r="O6">
-        <v>489.2892406260157</v>
+        <v>273.0630472590049</v>
       </c>
       <c r="P6">
-        <v>81.81325462658531</v>
+        <v>27.16744389128417</v>
       </c>
       <c r="Q6">
-        <v>1.788514541251961</v>
+        <v>2.307683370197973</v>
       </c>
       <c r="R6">
-        <v>261.1517904326333</v>
+        <v>183.2017448890178</v>
       </c>
       <c r="S6">
-        <v>5.980561986676187</v>
+        <v>10.05111295533433</v>
       </c>
       <c r="T6">
-        <v>3.599981367755713</v>
+        <v>2.326897851833511</v>
       </c>
       <c r="U6">
-        <v>1.280928669825258</v>
+        <v>0.8445359864221959</v>
       </c>
       <c r="V6">
-        <v>142.0774461475337</v>
+        <v>37.33508739092775</v>
       </c>
       <c r="W6">
-        <v>232.7278667497562</v>
+        <v>410.0736928410729</v>
       </c>
       <c r="X6">
         <v>512.7763540781823</v>
       </c>
       <c r="Y6">
-        <v>105.3003680787519</v>
+        <v>266.8807507104615</v>
       </c>
       <c r="Z6">
-        <v>2.210133459131919</v>
+        <v>1.536542788303084</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>413.6389210350716</v>
+        <v>207.5508004390344</v>
       </c>
       <c r="H7">
-        <v>79.33048385800751</v>
+        <v>37.44367795651677</v>
       </c>
       <c r="I7">
-        <v>334.3084371770641</v>
+        <v>170.1071224825177</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>414.3483706240805</v>
+        <v>258.8919524626767</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.8068293756616868</v>
+        <v>0.6570583630135868</v>
       </c>
       <c r="O7">
-        <v>481.6271516154353</v>
+        <v>301.5673605856303</v>
       </c>
       <c r="P7">
-        <v>67.27878099135478</v>
+        <v>42.67540812295366</v>
       </c>
       <c r="Q7">
-        <v>1.96832537328394</v>
+        <v>1.955370577258947</v>
       </c>
       <c r="R7">
-        <v>281.9218389151837</v>
+        <v>175.4457150465356</v>
       </c>
       <c r="S7">
-        <v>7.158678330948411</v>
+        <v>7.066537236545547</v>
       </c>
       <c r="T7">
-        <v>5.214123259041732</v>
+        <v>5.543013180491045</v>
       </c>
       <c r="U7">
-        <v>1.651370955247565</v>
+        <v>1.712538248297198</v>
       </c>
       <c r="V7">
-        <v>203.3043802682147</v>
+        <v>105.9833918250601</v>
       </c>
       <c r="W7">
-        <v>186.692085453039</v>
+        <v>350.8934001475854</v>
       </c>
       <c r="X7">
         <v>521.0005226301031</v>
       </c>
       <c r="Y7">
-        <v>106.6521520060226</v>
+        <v>262.1085701674264</v>
       </c>
       <c r="Z7">
-        <v>1.750476497112751</v>
+        <v>1.338733029307078</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>385.4054895782802</v>
+        <v>249.4599991004713</v>
       </c>
       <c r="H8">
-        <v>62.30177739155662</v>
+        <v>79.05882972441798</v>
       </c>
       <c r="I8">
-        <v>323.1037121867236</v>
+        <v>170.4011693760533</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>408.2192131333358</v>
+        <v>242.91942705006</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.7914956028323655</v>
+        <v>0.7014719713666113</v>
       </c>
       <c r="O8">
-        <v>475.9860232277125</v>
+        <v>280.3644216600027</v>
       </c>
       <c r="P8">
-        <v>67.76681009437668</v>
+        <v>37.44499460994281</v>
       </c>
       <c r="Q8">
-        <v>1.94931594237587</v>
+        <v>2.013217217117814</v>
       </c>
       <c r="R8">
-        <v>276.1202898524093</v>
+        <v>167.5345192064393</v>
       </c>
       <c r="S8">
-        <v>7.02388119737113</v>
+        <v>7.48736712557991</v>
       </c>
       <c r="T8">
-        <v>6.18610745494577</v>
+        <v>3.155371765178349</v>
       </c>
       <c r="U8">
-        <v>1.822306044778962</v>
+        <v>1.14910632270533</v>
       </c>
       <c r="V8">
-        <v>209.5708066456166</v>
+        <v>79.55416827404052</v>
       </c>
       <c r="W8">
-        <v>232.2369536847118</v>
+        <v>384.9394964953821</v>
       </c>
       <c r="X8">
         <v>555.3406658714354</v>
       </c>
       <c r="Y8">
-        <v>147.1214527380995</v>
+        <v>312.4212388213754</v>
       </c>
       <c r="Z8">
-        <v>1.578539019038453</v>
+        <v>1.232116926325449</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>392.8085408400949</v>
+        <v>160.5835213317023</v>
       </c>
       <c r="H9">
-        <v>86.07357030701081</v>
+        <v>42.82481166365903</v>
       </c>
       <c r="I9">
-        <v>306.7349705330841</v>
+        <v>117.7587096680433</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>403.9570677644259</v>
+        <v>220.8719254265128</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.7593256685187187</v>
+        <v>0.5331538150022749</v>
       </c>
       <c r="O9">
-        <v>482.4052648688771</v>
+        <v>242.9655287293755</v>
       </c>
       <c r="P9">
-        <v>78.44819710445111</v>
+        <v>22.09360330286279</v>
       </c>
       <c r="Q9">
-        <v>1.816346061805898</v>
+        <v>2.39763145287959</v>
       </c>
       <c r="R9">
-        <v>261.4679938979834</v>
+        <v>167.8996072401245</v>
       </c>
       <c r="S9">
-        <v>6.149348011485475</v>
+        <v>10.99709836366498</v>
       </c>
       <c r="T9">
-        <v>4.563637123904689</v>
+        <v>3.749777642757805</v>
       </c>
       <c r="U9">
-        <v>1.51811992049196</v>
+        <v>1.3216965429597</v>
       </c>
       <c r="V9">
-        <v>176.0649688221457</v>
+        <v>61.15730413928487</v>
       </c>
       <c r="W9">
-        <v>230.9431860362013</v>
+        <v>419.9194469012422</v>
       </c>
       <c r="X9">
         <v>537.6781565692854</v>
       </c>
       <c r="Y9">
-        <v>133.7210888048595</v>
+        <v>316.8062311427726</v>
       </c>
       <c r="Z9">
-        <v>1.727051343211982</v>
+        <v>1.325477233785848</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>347.4015616316622</v>
+        <v>188.4867272683845</v>
       </c>
       <c r="H10">
-        <v>105.1429512555699</v>
+        <v>31.43961118262396</v>
       </c>
       <c r="I10">
-        <v>242.2586103760923</v>
+        <v>157.0471160857605</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>307.3916736975284</v>
+        <v>211.1114514106568</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.7881105153631239</v>
+        <v>0.7439061928491524</v>
       </c>
       <c r="O10">
-        <v>398.8029626731476</v>
+        <v>248.5879288004344</v>
       </c>
       <c r="P10">
-        <v>91.41128897561912</v>
+        <v>37.47647738977754</v>
       </c>
       <c r="Q10">
-        <v>1.473098484428451</v>
+        <v>1.892083154627279</v>
       </c>
       <c r="R10">
-        <v>172.7338424478928</v>
+        <v>140.2028398466886</v>
       </c>
       <c r="S10">
-        <v>4.36273207764869</v>
+        <v>6.633172222004026</v>
       </c>
       <c r="T10">
-        <v>3.304087981963117</v>
+        <v>5.995199055532763</v>
       </c>
       <c r="U10">
-        <v>1.19516048422765</v>
+        <v>1.790958991520037</v>
       </c>
       <c r="V10">
-        <v>116.5959098403613</v>
+        <v>100.7400617483462</v>
       </c>
       <c r="W10">
-        <v>205.3386734110842</v>
+        <v>290.5501677014161</v>
       </c>
       <c r="X10">
         <v>447.5972837871765</v>
       </c>
       <c r="Y10">
-        <v>140.2056100896481</v>
+        <v>236.4858323765197</v>
       </c>
       <c r="Z10">
-        <v>1.464553902513527</v>
+        <v>1.228615535998867</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>347.2071726875539</v>
+        <v>164.4989174492976</v>
       </c>
       <c r="H11">
-        <v>114.9891682398883</v>
+        <v>28.35809279300904</v>
       </c>
       <c r="I11">
-        <v>232.2180044476656</v>
+        <v>136.1408246562885</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>421.4701346322442</v>
+        <v>228.0344728968007</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.5509714339553111</v>
+        <v>0.5970186126985304</v>
       </c>
       <c r="O11">
-        <v>497.8795435321354</v>
+        <v>253.3923283527472</v>
       </c>
       <c r="P11">
-        <v>76.40940889989116</v>
+        <v>25.35785545594647</v>
       </c>
       <c r="Q11">
-        <v>1.874252325579612</v>
+        <v>2.301850430624389</v>
       </c>
       <c r="R11">
-        <v>278.2596223054597</v>
+        <v>169.6644823958193</v>
       </c>
       <c r="S11">
-        <v>6.515945492844201</v>
+        <v>9.99265607428668</v>
       </c>
       <c r="T11">
-        <v>3.019477208176832</v>
+        <v>5.800775060932539</v>
       </c>
       <c r="U11">
-        <v>1.105083706526313</v>
+        <v>1.757991539819786</v>
       </c>
       <c r="V11">
-        <v>105.1453481987521</v>
+        <v>86.28753744075422</v>
       </c>
       <c r="W11">
-        <v>329.9827599129293</v>
+        <v>426.0599397043064</v>
       </c>
       <c r="X11">
         <v>562.2007643605949</v>
       </c>
       <c r="Y11">
-        <v>140.7306297283507</v>
+        <v>334.1662914637943</v>
       </c>
       <c r="Z11">
-        <v>2.34478279923772</v>
+        <v>1.274993769832313</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>451.026987894946</v>
+        <v>304.9916922607006</v>
       </c>
       <c r="H12">
-        <v>128.4761425528336</v>
+        <v>73.56570181501878</v>
       </c>
       <c r="I12">
-        <v>322.5508453421124</v>
+        <v>231.4259904456818</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>404.8735988084117</v>
+        <v>308.4738822357438</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.7966704825689194</v>
+        <v>0.750228799820466</v>
       </c>
       <c r="O12">
-        <v>462.6012897639939</v>
+        <v>415.9982160556565</v>
       </c>
       <c r="P12">
-        <v>57.72769095558216</v>
+        <v>107.5243338199128</v>
       </c>
       <c r="Q12">
-        <v>2.081128566901605</v>
+        <v>1.352963788856946</v>
       </c>
       <c r="R12">
-        <v>284.7348520594823</v>
+        <v>162.9973521564354</v>
       </c>
       <c r="S12">
-        <v>8.01350759239507</v>
+        <v>3.868875084149708</v>
       </c>
       <c r="T12">
-        <v>3.510589428768605</v>
+        <v>4.145840857028772</v>
       </c>
       <c r="U12">
-        <v>1.255783951803479</v>
+        <v>1.422105628575664</v>
       </c>
       <c r="V12">
-        <v>161.2125673346479</v>
+        <v>126.8077918244247</v>
       </c>
       <c r="W12">
-        <v>188.7402990633407</v>
+        <v>279.8651539597713</v>
       </c>
       <c r="X12">
         <v>511.2911444054531</v>
       </c>
       <c r="Y12">
-        <v>106.4175455970414</v>
+        <v>202.8172621697094</v>
       </c>
       <c r="Z12">
-        <v>1.773582523487443</v>
+        <v>1.379888235181833</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>389.9030307809236</v>
+        <v>295.5777679517784</v>
       </c>
       <c r="H13">
-        <v>121.6358756144261</v>
+        <v>107.9843223148569</v>
       </c>
       <c r="I13">
-        <v>268.2671551664976</v>
+        <v>187.5934456369214</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>425.9044136119894</v>
+        <v>277.2227544246128</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.6298764384510377</v>
+        <v>0.676688484775643</v>
       </c>
       <c r="O13">
-        <v>508.7130978629065</v>
+        <v>337.622191840096</v>
       </c>
       <c r="P13">
-        <v>82.8086842509171</v>
+        <v>60.39943741548325</v>
       </c>
       <c r="Q13">
-        <v>1.815351261063907</v>
+        <v>1.720947704100717</v>
       </c>
       <c r="R13">
-        <v>275.5775642300441</v>
+        <v>173.278481275462</v>
       </c>
       <c r="S13">
-        <v>6.143233677297228</v>
+        <v>5.58982345344739</v>
       </c>
       <c r="T13">
-        <v>3.205493681953492</v>
+        <v>2.737228531100496</v>
       </c>
       <c r="U13">
-        <v>1.164866113441358</v>
+        <v>1.006945923503995</v>
       </c>
       <c r="V13">
-        <v>126.5776454844845</v>
+        <v>78.85907247963479</v>
       </c>
       <c r="W13">
-        <v>277.9018405461268</v>
+        <v>358.5755500757029</v>
       </c>
       <c r="X13">
         <v>546.1689957126243</v>
       </c>
       <c r="Y13">
-        <v>120.2645821006349</v>
+        <v>268.9462412880115</v>
       </c>
       <c r="Z13">
-        <v>2.310753803755658</v>
+        <v>1.333261057520073</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>400.330764813225</v>
+        <v>228.0282718636336</v>
       </c>
       <c r="H14">
-        <v>149.7639451557994</v>
+        <v>74.86222606211993</v>
       </c>
       <c r="I14">
-        <v>250.5668196574256</v>
+        <v>153.1660458015137</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>400.2783421047603</v>
+        <v>306.8593045953947</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.6259814566530997</v>
+        <v>0.4991409532243735</v>
       </c>
       <c r="O14">
-        <v>491.9246229971805</v>
+        <v>420.6194398029015</v>
       </c>
       <c r="P14">
-        <v>91.64628089242009</v>
+        <v>113.7601352075067</v>
       </c>
       <c r="Q14">
-        <v>1.680389105463324</v>
+        <v>1.307636326830914</v>
       </c>
       <c r="R14">
-        <v>246.2769301369061</v>
+        <v>158.1024192528625</v>
       </c>
       <c r="S14">
-        <v>5.367644144497595</v>
+        <v>3.697423873799562</v>
       </c>
       <c r="T14">
-        <v>2.673078386101281</v>
+        <v>3.045972366282804</v>
       </c>
       <c r="U14">
-        <v>0.9832307618675795</v>
+        <v>1.113820182298792</v>
       </c>
       <c r="V14">
-        <v>103.3143017615946</v>
+        <v>69.7829875217099</v>
       </c>
       <c r="W14">
-        <v>259.1629170965281</v>
+        <v>356.56369095244</v>
       </c>
       <c r="X14">
         <v>509.7297367539537</v>
       </c>
       <c r="Y14">
-        <v>109.4513946491934</v>
+        <v>202.8704321585589</v>
       </c>
       <c r="Z14">
-        <v>2.367835676531857</v>
+        <v>1.757593194624626</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>515.2541697865255</v>
+        <v>194.5339395922448</v>
       </c>
       <c r="H15">
-        <v>159.5718069754676</v>
+        <v>51.001576046311</v>
       </c>
       <c r="I15">
-        <v>355.6823628110579</v>
+        <v>143.5323635459338</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>469.3286578159872</v>
+        <v>390.6900942415537</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.7578534932561324</v>
+        <v>0.3673816297405059</v>
       </c>
       <c r="O15">
-        <v>555.2819634861354</v>
+        <v>472.1998571462665</v>
       </c>
       <c r="P15">
-        <v>85.95330567014793</v>
+        <v>81.50976290471294</v>
       </c>
       <c r="Q15">
-        <v>1.865671835579049</v>
+        <v>1.756679518808926</v>
       </c>
       <c r="R15">
-        <v>308.9679962522755</v>
+        <v>247.5035631638728</v>
       </c>
       <c r="S15">
-        <v>6.460274670727271</v>
+        <v>5.793169312715098</v>
       </c>
       <c r="T15">
-        <v>3.228979978059283</v>
+        <v>3.814273100415604</v>
       </c>
       <c r="U15">
-        <v>1.172166291093948</v>
+        <v>1.338750109338277</v>
       </c>
       <c r="V15">
-        <v>168.6376696654647</v>
+        <v>75.25399803751051</v>
       </c>
       <c r="W15">
-        <v>230.6373136396147</v>
+        <v>442.7873129047388</v>
       </c>
       <c r="X15">
         <v>586.3196764506727</v>
       </c>
       <c r="Y15">
-        <v>116.9910186346854</v>
+        <v>195.629582209119</v>
       </c>
       <c r="Z15">
-        <v>1.971410423904417</v>
+        <v>2.263396506318863</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>406.6822787864361</v>
+        <v>130.7024570276635</v>
       </c>
       <c r="H16">
-        <v>104.958507867595</v>
+        <v>24.69114335926599</v>
       </c>
       <c r="I16">
-        <v>301.7237709188411</v>
+        <v>106.0113136683975</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>394.0685958941361</v>
+        <v>300.4613477025893</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.7656630699897161</v>
+        <v>0.3528284569013265</v>
       </c>
       <c r="O16">
-        <v>515.1078073503331</v>
+        <v>348.3457122435915</v>
       </c>
       <c r="P16">
-        <v>121.0392114561971</v>
+        <v>47.88436454100227</v>
       </c>
       <c r="Q16">
-        <v>1.448261658695556</v>
+        <v>1.984406380278322</v>
       </c>
       <c r="R16">
-        <v>218.772146743382</v>
+        <v>205.4393091918513</v>
       </c>
       <c r="S16">
-        <v>4.255710204595523</v>
+        <v>7.274727681627918</v>
       </c>
       <c r="T16">
-        <v>3.874695696888768</v>
+        <v>5.2934955310044</v>
       </c>
       <c r="U16">
-        <v>1.354467129886525</v>
+        <v>1.666478808558833</v>
       </c>
       <c r="V16">
-        <v>159.5609220102476</v>
+        <v>64.86404650109256</v>
       </c>
       <c r="W16">
-        <v>223.3124997043357</v>
+        <v>419.0249569547793</v>
       </c>
       <c r="X16">
         <v>525.0362706231768</v>
       </c>
       <c r="Y16">
-        <v>130.9676747290407</v>
+        <v>224.5749229205875</v>
       </c>
       <c r="Z16">
-        <v>1.705096316066903</v>
+        <v>1.865858180002367</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>450.1443683676275</v>
+        <v>324.6004767379196</v>
       </c>
       <c r="H17">
-        <v>121.9829955121005</v>
+        <v>123.4782862000495</v>
       </c>
       <c r="I17">
-        <v>328.161372855527</v>
+        <v>201.1221905378701</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>437.3962102547087</v>
+        <v>335.3386756035138</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>0.7502611251808261</v>
+        <v>0.5997584089455463</v>
       </c>
       <c r="O17">
-        <v>520.6390650979331</v>
+        <v>374.8852493269641</v>
       </c>
       <c r="P17">
-        <v>83.24285484322451</v>
+        <v>39.54657372345018</v>
       </c>
       <c r="Q17">
-        <v>1.833294730882407</v>
+        <v>2.249140918404937</v>
       </c>
       <c r="R17">
-        <v>284.7875230870161</v>
+        <v>246.3928584593847</v>
       </c>
       <c r="S17">
-        <v>6.25445950980993</v>
+        <v>9.479588597195363</v>
       </c>
       <c r="T17">
-        <v>3.690222284490249</v>
+        <v>2.628806138530529</v>
       </c>
       <c r="U17">
-        <v>1.305686695937353</v>
+        <v>0.9665298034056147</v>
       </c>
       <c r="V17">
-        <v>168.8897984847915</v>
+        <v>81.77674685207407</v>
       </c>
       <c r="W17">
-        <v>208.1331334347886</v>
+        <v>335.1723157524455</v>
       </c>
       <c r="X17">
         <v>536.2945062903156</v>
       </c>
       <c r="Y17">
-        <v>98.89829603560685</v>
+        <v>200.9558306868017</v>
       </c>
       <c r="Z17">
-        <v>2.104516880248911</v>
+        <v>1.667890474274548</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>469.9191300625797</v>
+        <v>192.9701228182658</v>
       </c>
       <c r="H18">
-        <v>99.15869741323714</v>
+        <v>48.52201851558586</v>
       </c>
       <c r="I18">
-        <v>370.7604326493426</v>
+        <v>144.44810430268</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>425.7708876236239</v>
+        <v>289.9154045641641</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.8707979888401626</v>
+        <v>0.4982422528386577</v>
       </c>
       <c r="O18">
-        <v>481.9863823675741</v>
+        <v>421.1499662278823</v>
       </c>
       <c r="P18">
-        <v>56.21549474395007</v>
+        <v>131.2345616637182</v>
       </c>
       <c r="Q18">
-        <v>2.148723435214937</v>
+        <v>1.166002715437103</v>
       </c>
       <c r="R18">
-        <v>304.9793366450964</v>
+        <v>136.8955493050707</v>
       </c>
       <c r="S18">
-        <v>8.573906261306107</v>
+        <v>3.209139123785527</v>
       </c>
       <c r="T18">
-        <v>4.739061144623791</v>
+        <v>3.976959918851717</v>
       </c>
       <c r="U18">
-        <v>1.555839045333908</v>
+        <v>1.380517687937835</v>
       </c>
       <c r="V18">
-        <v>216.4854595293779</v>
+        <v>77.46259948746662</v>
       </c>
       <c r="W18">
-        <v>185.4005524916311</v>
+        <v>411.7128808382937</v>
       </c>
       <c r="X18">
         <v>556.1609851409737</v>
       </c>
       <c r="Y18">
-        <v>130.3900975173498</v>
+        <v>266.2455805768096</v>
       </c>
       <c r="Z18">
-        <v>1.421891355414943</v>
+        <v>1.546365126310587</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>401.3834563740829</v>
+        <v>299.8492970089192</v>
       </c>
       <c r="H19">
-        <v>124.0181460659916</v>
+        <v>88.31248154020651</v>
       </c>
       <c r="I19">
-        <v>277.3653103080912</v>
+        <v>211.5368154687127</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>419.3183567176588</v>
+        <v>287.34191685835</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.6614671307959232</v>
+        <v>0.7361850222952098</v>
       </c>
       <c r="O19">
-        <v>493.3585999816748</v>
+        <v>362.8039938797115</v>
       </c>
       <c r="P19">
-        <v>74.04024326401597</v>
+        <v>75.46207702136142</v>
       </c>
       <c r="Q19">
-        <v>1.896627519682138</v>
+        <v>1.570232487712373</v>
       </c>
       <c r="R19">
-        <v>278.8915937791661</v>
+        <v>168.8489119291551</v>
       </c>
       <c r="S19">
-        <v>6.663384373582282</v>
+        <v>4.807765810328952</v>
       </c>
       <c r="T19">
-        <v>3.236489732401754</v>
+        <v>3.395321836499467</v>
       </c>
       <c r="U19">
-        <v>1.174489326559574</v>
+        <v>1.222398553719299</v>
       </c>
       <c r="V19">
-        <v>131.7073214538779</v>
+        <v>103.583765758602</v>
       </c>
       <c r="W19">
-        <v>258.119137447319</v>
+        <v>323.9476322866975</v>
       </c>
       <c r="X19">
         <v>535.4844477554102</v>
       </c>
       <c r="Y19">
-        <v>116.1660910377514</v>
+        <v>248.1425308970602</v>
       </c>
       <c r="Z19">
-        <v>2.221983499155843</v>
+        <v>1.305490159690055</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>402.4167309532713</v>
+        <v>262.0512518442002</v>
       </c>
       <c r="H20">
-        <v>99.59978725633015</v>
+        <v>111.9927422744654</v>
       </c>
       <c r="I20">
-        <v>302.8169436969411</v>
+        <v>150.0585095697349</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>454.7157308250289</v>
+        <v>369.1263077810806</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.6659478068803887</v>
+        <v>0.4065234755869277</v>
       </c>
       <c r="O20">
-        <v>531.2647324929367</v>
+        <v>432.546919022818</v>
       </c>
       <c r="P20">
-        <v>76.54900166790794</v>
+        <v>63.4206112417376</v>
       </c>
       <c r="Q20">
-        <v>1.937329371155674</v>
+        <v>1.919901896717551</v>
       </c>
       <c r="R20">
-        <v>306.415101561146</v>
+        <v>247.364955967082</v>
       </c>
       <c r="S20">
-        <v>6.940191523303192</v>
+        <v>6.820289343697707</v>
       </c>
       <c r="T20">
-        <v>4.040337254110905</v>
+        <v>2.339894947852782</v>
       </c>
       <c r="U20">
-        <v>1.396328167229226</v>
+        <v>0.8501060342818331</v>
       </c>
       <c r="V20">
-        <v>163.7429553008889</v>
+        <v>54.85280356644171</v>
       </c>
       <c r="W20">
-        <v>257.8025924791145</v>
+        <v>410.5610266063208</v>
       </c>
       <c r="X20">
         <v>560.6195361760556</v>
       </c>
       <c r="Y20">
-        <v>105.9038053510267</v>
+        <v>191.493228394975</v>
       </c>
       <c r="Z20">
-        <v>2.434309056455591</v>
+        <v>2.143997623558235</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>456.9497549648285</v>
+        <v>313.391113760587</v>
       </c>
       <c r="H21">
-        <v>127.3318855000119</v>
+        <v>150.1729366311156</v>
       </c>
       <c r="I21">
-        <v>329.6178694648166</v>
+        <v>163.2181771294714</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>362.093228494575</v>
+        <v>265.5299125510287</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.9103121614155099</v>
+        <v>0.6146884754391078</v>
       </c>
       <c r="O21">
-        <v>476.973472161071</v>
+        <v>322.1264147627818</v>
       </c>
       <c r="P21">
-        <v>114.880243666496</v>
+        <v>56.59650221175315</v>
       </c>
       <c r="Q21">
-        <v>1.423570649073707</v>
+        <v>1.738996876010544</v>
       </c>
       <c r="R21">
-        <v>198.5530854525156</v>
+        <v>167.1087720116661</v>
       </c>
       <c r="S21">
-        <v>4.15191905011755</v>
+        <v>5.69163114634825</v>
       </c>
       <c r="T21">
-        <v>3.588651445554741</v>
+        <v>2.086868118790273</v>
       </c>
       <c r="U21">
-        <v>1.277776490022336</v>
+        <v>0.7356644343352142</v>
       </c>
       <c r="V21">
-        <v>166.9161797426855</v>
+        <v>52.74128865028381</v>
       </c>
       <c r="W21">
-        <v>147.3556026962544</v>
+        <v>313.7552950315996</v>
       </c>
       <c r="X21">
         <v>476.9734721610711</v>
       </c>
       <c r="Y21">
-        <v>114.8802436664961</v>
+        <v>211.4435596100424</v>
       </c>
       <c r="Z21">
-        <v>1.282688806998322</v>
+        <v>1.483872554975177</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>397.3092477661172</v>
+        <v>145.3666529167238</v>
       </c>
       <c r="H22">
-        <v>67.71780274079651</v>
+        <v>16.46892228767839</v>
       </c>
       <c r="I22">
-        <v>329.5914450253207</v>
+        <v>128.8977306290454</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>519.4752439437882</v>
+        <v>358.9055269285175</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.6344699749753338</v>
+        <v>0.3591411136299322</v>
       </c>
       <c r="O22">
-        <v>559.526617680234</v>
+        <v>374.7923865089813</v>
       </c>
       <c r="P22">
-        <v>40.05137373644595</v>
+        <v>15.88685958046365</v>
       </c>
       <c r="Q22">
-        <v>2.636928127207449</v>
+        <v>3.160879910626495</v>
       </c>
       <c r="R22">
-        <v>413.8626500048561</v>
+        <v>308.689071637686</v>
       </c>
       <c r="S22">
-        <v>13.97022287829983</v>
+        <v>23.59134507425685</v>
       </c>
       <c r="T22">
-        <v>5.867131414273705</v>
+        <v>8.826725293705666</v>
       </c>
       <c r="U22">
-        <v>1.769365828580498</v>
+        <v>2.17778408441478</v>
       </c>
       <c r="V22">
-        <v>209.7738788692005</v>
+        <v>93.03197378347555</v>
       </c>
       <c r="W22">
-        <v>229.9351726549133</v>
+        <v>430.6288870511887</v>
       </c>
       <c r="X22">
         <v>559.526617680234</v>
       </c>
       <c r="Y22">
-        <v>40.05137373644584</v>
+        <v>200.6210907517166</v>
       </c>
       <c r="Z22">
-        <v>5.741005893280448</v>
+        <v>2.146478645079862</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>417.9126243544732</v>
+        <v>144.761278377877</v>
       </c>
       <c r="H23">
-        <v>57.90263529975165</v>
+        <v>33.31083865068108</v>
       </c>
       <c r="I23">
-        <v>360.0099890547216</v>
+        <v>111.4504397271959</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>463.3278609220583</v>
+        <v>296.9579787478386</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.7770091536008085</v>
+        <v>0.3753071064032055</v>
       </c>
       <c r="O23">
-        <v>493.0456122075747</v>
+        <v>318.6587658922971</v>
       </c>
       <c r="P23">
-        <v>29.71775128551649</v>
+        <v>21.70078714445859</v>
       </c>
       <c r="Q23">
-        <v>2.808857135807515</v>
+        <v>2.686772297024211</v>
       </c>
       <c r="R23">
-        <v>379.8549431635823</v>
+        <v>238.652905024488</v>
       </c>
       <c r="S23">
-        <v>16.59094618131049</v>
+        <v>14.68420310152981</v>
       </c>
       <c r="T23">
-        <v>7.217506115067368</v>
+        <v>4.345771053558184</v>
       </c>
       <c r="U23">
-        <v>1.976509479810205</v>
+        <v>1.469203200639471</v>
       </c>
       <c r="V23">
-        <v>245.5648814787695</v>
+        <v>62.51004896563025</v>
       </c>
       <c r="W23">
-        <v>147.0283514481237</v>
+        <v>395.5879007756494</v>
       </c>
       <c r="X23">
         <v>507.0383405028453</v>
       </c>
       <c r="Y23">
-        <v>43.71047958078702</v>
+        <v>210.0803617550067</v>
       </c>
       <c r="Z23">
-        <v>3.363686531427355</v>
+        <v>1.883031319400428</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>375.1174349758635</v>
+        <v>181.1292697395103</v>
       </c>
       <c r="H24">
-        <v>61.02910252273623</v>
+        <v>10.44996607960312</v>
       </c>
       <c r="I24">
-        <v>314.0883324531273</v>
+        <v>170.6793036599072</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>468.524481235491</v>
+        <v>309.9798888976302</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.6703776324022211</v>
+        <v>0.5506141197317271</v>
       </c>
       <c r="O24">
-        <v>499.7443452506243</v>
+        <v>324.5934437629356</v>
       </c>
       <c r="P24">
-        <v>31.21986401513325</v>
+        <v>14.6135548653054</v>
       </c>
       <c r="Q24">
-        <v>2.773042098779568</v>
+        <v>3.100623943545315</v>
       </c>
       <c r="R24">
-        <v>381.9504840033532</v>
+        <v>264.6687507819511</v>
       </c>
       <c r="S24">
-        <v>16.00725566928743</v>
+        <v>22.21180587165449</v>
       </c>
       <c r="T24">
-        <v>6.146533694086596</v>
+        <v>17.33300073509803</v>
       </c>
       <c r="U24">
-        <v>1.815888295943243</v>
+        <v>2.85261224136949</v>
       </c>
       <c r="V24">
-        <v>203.2662994701703</v>
+        <v>140.8696024993354</v>
       </c>
       <c r="W24">
-        <v>209.5244519030993</v>
+        <v>352.9334806963194</v>
       </c>
       <c r="X24">
         <v>523.6127843562266</v>
       </c>
       <c r="Y24">
-        <v>55.08830312073565</v>
+        <v>213.6328954585964</v>
       </c>
       <c r="Z24">
-        <v>3.803429040896211</v>
+        <v>1.652055878092615</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>464.3644042169448</v>
+        <v>147.1047798966458</v>
       </c>
       <c r="H25">
-        <v>69.61048369173031</v>
+        <v>28.08598240566123</v>
       </c>
       <c r="I25">
-        <v>394.7539205252145</v>
+        <v>119.0187974909846</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>444.7689022907793</v>
+        <v>296.6278663434629</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.8875483840979823</v>
+        <v>0.4012394349800356</v>
       </c>
       <c r="O25">
-        <v>491.8313005742151</v>
+        <v>307.6886355861905</v>
       </c>
       <c r="P25">
-        <v>47.06239828343566</v>
+        <v>11.06076924272756</v>
       </c>
       <c r="Q25">
-        <v>2.346661428432407</v>
+        <v>3.325683802765135</v>
       </c>
       <c r="R25">
-        <v>334.3293875095175</v>
+        <v>259.8432452268012</v>
       </c>
       <c r="S25">
-        <v>10.45062127119269</v>
+        <v>27.81801417550551</v>
       </c>
       <c r="T25">
-        <v>6.670897537120706</v>
+        <v>5.237658336886027</v>
       </c>
       <c r="U25">
-        <v>1.897754414161168</v>
+        <v>1.655874516177651</v>
       </c>
       <c r="V25">
-        <v>262.6503178273393</v>
+        <v>72.51193496363626</v>
       </c>
       <c r="W25">
-        <v>102.7551585295453</v>
+        <v>378.4902815637753</v>
       </c>
       <c r="X25">
         <v>497.5090790547599</v>
       </c>
       <c r="Y25">
-        <v>52.74017676398057</v>
+        <v>200.8812127112969</v>
       </c>
       <c r="Z25">
-        <v>1.948327913070685</v>
+        <v>1.884149724383311</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>417.4317089694065</v>
+        <v>186.2686611787689</v>
       </c>
       <c r="H26">
-        <v>43.90612856809308</v>
+        <v>35.27911728950696</v>
       </c>
       <c r="I26">
-        <v>373.5255804013134</v>
+        <v>150.989543889262</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>446.7929775144167</v>
+        <v>297.5815509110373</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.8360148865349184</v>
+        <v>0.5073887928435478</v>
       </c>
       <c r="O26">
-        <v>471.7270254050334</v>
+        <v>304.4188535900544</v>
       </c>
       <c r="P26">
-        <v>24.93404789061673</v>
+        <v>6.83730267901715</v>
       </c>
       <c r="Q26">
-        <v>2.940166227662251</v>
+        <v>3.796011252274924</v>
       </c>
       <c r="R26">
-        <v>373.4827319875121</v>
+        <v>271.6270730062787</v>
       </c>
       <c r="S26">
-        <v>18.9189909105194</v>
+        <v>44.52323787336179</v>
       </c>
       <c r="T26">
-        <v>9.50736770886143</v>
+        <v>5.27985605904518</v>
       </c>
       <c r="U26">
-        <v>2.252067046325515</v>
+        <v>1.663898835802094</v>
       </c>
       <c r="V26">
-        <v>274.6460351213797</v>
+        <v>92.28866170312581</v>
       </c>
       <c r="W26">
-        <v>111.7268578605278</v>
+        <v>334.2628943725794</v>
       </c>
       <c r="X26">
         <v>485.2524382618413</v>
       </c>
       <c r="Y26">
-        <v>38.45946074742454</v>
+        <v>187.670887350804</v>
       </c>
       <c r="Z26">
-        <v>2.905055237104688</v>
+        <v>1.781112132473473</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>288.0130512794906</v>
+        <v>288.3240549250802</v>
       </c>
       <c r="H27">
-        <v>38.78859763668505</v>
+        <v>8.497914155045454</v>
       </c>
       <c r="I27">
-        <v>249.2244536428056</v>
+        <v>279.8261407700347</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>496.735865126776</v>
+        <v>300.8587115104302</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.5017242988468308</v>
+        <v>0.9300915348776053</v>
       </c>
       <c r="O27">
-        <v>522.9145631738611</v>
+        <v>314.9959075724033</v>
       </c>
       <c r="P27">
-        <v>26.17869804708512</v>
+        <v>14.13719606197313</v>
       </c>
       <c r="Q27">
-        <v>2.99447206316484</v>
+        <v>3.103750304407467</v>
       </c>
       <c r="R27">
-        <v>418.3444851747516</v>
+        <v>256.980384929613</v>
       </c>
       <c r="S27">
-        <v>19.97481166685007</v>
+        <v>22.28135665598453</v>
       </c>
       <c r="T27">
-        <v>7.425198868419437</v>
+        <v>33.92880295853471</v>
       </c>
       <c r="U27">
-        <v>2.004879467955602</v>
+        <v>3.524264298437122</v>
       </c>
       <c r="V27">
-        <v>171.4579906502246</v>
+        <v>249.8772453022246</v>
       </c>
       <c r="W27">
-        <v>287.7388180313216</v>
+        <v>257.1371309040925</v>
       </c>
       <c r="X27">
         <v>536.9632716741272</v>
       </c>
       <c r="Y27">
-        <v>40.22740654735117</v>
+        <v>236.104560163697</v>
       </c>
       <c r="Z27">
-        <v>7.152805580261008</v>
+        <v>1.089081594721479</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>473.5236477096827</v>
+        <v>83.7323843636166</v>
       </c>
       <c r="H28">
-        <v>71.73578369017247</v>
+        <v>29.61795061998165</v>
       </c>
       <c r="I28">
-        <v>401.7878640195102</v>
+        <v>54.11443374363495</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>502.3487051380018</v>
+        <v>346.924982384792</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.7998186516856528</v>
+        <v>0.1559830986273969</v>
       </c>
       <c r="O28">
-        <v>543.2709599532117</v>
+        <v>353.1497625831603</v>
       </c>
       <c r="P28">
-        <v>40.92225481520988</v>
+        <v>6.224780198368315</v>
       </c>
       <c r="Q28">
-        <v>2.585934158334515</v>
+        <v>4.038354091343117</v>
       </c>
       <c r="R28">
-        <v>396.5264485752814</v>
+        <v>321.7871158029997</v>
       </c>
       <c r="S28">
-        <v>13.27568489093348</v>
+        <v>56.73288876541063</v>
       </c>
       <c r="T28">
-        <v>6.600940609429121</v>
+        <v>2.827082313626617</v>
       </c>
       <c r="U28">
-        <v>1.887212155458027</v>
+        <v>1.039245195240735</v>
       </c>
       <c r="V28">
-        <v>266.407221058109</v>
+        <v>23.33412086894168</v>
       </c>
       <c r="W28">
-        <v>147.700518924625</v>
+        <v>495.3739492005002</v>
       </c>
       <c r="X28">
         <v>549.4883829441352</v>
       </c>
       <c r="Y28">
-        <v>47.13967780613336</v>
+        <v>202.5634005593432</v>
       </c>
       <c r="Z28">
-        <v>3.133252618570244</v>
+        <v>2.445525439603661</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>390.3507933312909</v>
+        <v>157.5080012758299</v>
       </c>
       <c r="H29">
-        <v>46.80513024345655</v>
+        <v>26.42746959966358</v>
       </c>
       <c r="I29">
-        <v>343.5456630878343</v>
+        <v>131.0805316761663</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>457.2725626248756</v>
+        <v>308.1340763707825</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.7512929730919864</v>
+        <v>0.425400959283825</v>
       </c>
       <c r="O29">
-        <v>485.9874091595764</v>
+        <v>326.6632836478669</v>
       </c>
       <c r="P29">
-        <v>28.71484653470094</v>
+        <v>18.52920727708432</v>
       </c>
       <c r="Q29">
-        <v>2.828768426613568</v>
+        <v>2.869581667894255</v>
       </c>
       <c r="R29">
-        <v>376.0449113724594</v>
+        <v>254.9630028478486</v>
       </c>
       <c r="S29">
-        <v>16.92460409190335</v>
+        <v>17.62964161191407</v>
       </c>
       <c r="T29">
-        <v>8.339914690994002</v>
+        <v>5.960010688190705</v>
       </c>
       <c r="U29">
-        <v>2.121052987420738</v>
+        <v>1.785072274396238</v>
       </c>
       <c r="V29">
-        <v>244.2695017583341</v>
+        <v>83.90558841135737</v>
       </c>
       <c r="W29">
-        <v>149.6807010198271</v>
+        <v>362.1458324314951</v>
       </c>
       <c r="X29">
         <v>493.2263641076614</v>
       </c>
       <c r="Y29">
-        <v>35.95380148278582</v>
+        <v>185.0922877368789</v>
       </c>
       <c r="Z29">
-        <v>4.163139775122031</v>
+        <v>1.956569000575052</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>398.8373666565745</v>
+        <v>177.6102482689174</v>
       </c>
       <c r="H30">
-        <v>69.10001432032044</v>
+        <v>19.35076738924162</v>
       </c>
       <c r="I30">
-        <v>329.737352336254</v>
+        <v>158.2594808796758</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>481.2265718993983</v>
+        <v>309.7956350620723</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.6852018811737324</v>
+        <v>0.5108512289011627</v>
       </c>
       <c r="O30">
-        <v>519.8803629024582</v>
+        <v>327.5859822343299</v>
       </c>
       <c r="P30">
-        <v>38.65379100305991</v>
+        <v>17.79034717225764</v>
       </c>
       <c r="Q30">
-        <v>2.598953858079409</v>
+        <v>2.913094545280688</v>
       </c>
       <c r="R30">
-        <v>380.7671526426005</v>
+        <v>257.9706717559189</v>
       </c>
       <c r="S30">
-        <v>13.44966041911137</v>
+        <v>18.41369249641004</v>
       </c>
       <c r="T30">
-        <v>5.771885441408472</v>
+        <v>9.178460197276868</v>
       </c>
       <c r="U30">
-        <v>1.752998793418835</v>
+        <v>2.216859456061964</v>
       </c>
       <c r="V30">
-        <v>208.6051106075081</v>
+        <v>115.36154921078</v>
       </c>
       <c r="W30">
-        <v>200.0172184479491</v>
+        <v>371.4950899045273</v>
       </c>
       <c r="X30">
         <v>529.7545707842031</v>
       </c>
       <c r="Y30">
-        <v>48.52799888480484</v>
+        <v>219.9589357221308</v>
       </c>
       <c r="Z30">
-        <v>4.121686923929161</v>
+        <v>1.688929293483347</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>309.0929873414634</v>
+        <v>274.4894347998797</v>
       </c>
       <c r="H31">
-        <v>63.58605708296672</v>
+        <v>44.71489195055983</v>
       </c>
       <c r="I31">
-        <v>245.5069302584967</v>
+        <v>229.7745428493199</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>438.9792783354123</v>
+        <v>306.7051275693361</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.5592676975310699</v>
+        <v>0.749170855636821</v>
       </c>
       <c r="O31">
-        <v>483.3668853175453</v>
+        <v>318.3380255521103</v>
       </c>
       <c r="P31">
-        <v>44.38760698213287</v>
+        <v>11.63289798277416</v>
       </c>
       <c r="Q31">
-        <v>2.387815653783227</v>
+        <v>3.309276674502406</v>
       </c>
       <c r="R31">
-        <v>332.9898555494979</v>
+        <v>268.2086496180755</v>
       </c>
       <c r="S31">
-        <v>10.88968111103878</v>
+        <v>27.36532427461334</v>
       </c>
       <c r="T31">
-        <v>4.8610183037165</v>
+        <v>6.138658125426669</v>
       </c>
       <c r="U31">
-        <v>1.581247943478262</v>
+        <v>1.81460617192687</v>
       </c>
       <c r="V31">
-        <v>144.9616082621642</v>
+        <v>148.6346239387909</v>
       </c>
       <c r="W31">
-        <v>238.8742848793008</v>
+        <v>254.6066722884776</v>
       </c>
       <c r="X31">
         <v>484.3812151377975</v>
       </c>
       <c r="Y31">
-        <v>45.40193680238514</v>
+        <v>177.6760875684614</v>
       </c>
       <c r="Z31">
-        <v>5.261323672578475</v>
+        <v>1.432982208089053</v>
       </c>
     </row>
   </sheetData>

--- a/results/DeterministicUSM/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_09/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>133.3103305997239</v>
+        <v>237.7517071385501</v>
       </c>
       <c r="H2">
-        <v>42.62853781351005</v>
+        <v>86.16542594710151</v>
       </c>
       <c r="I2">
-        <v>90.68179278621385</v>
+        <v>151.5862811914486</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>192.6170794479679</v>
+        <v>291.579491034669</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.4707879127131608</v>
+        <v>0.5198797784218125</v>
       </c>
       <c r="O2">
-        <v>230.7939909959881</v>
+        <v>373.0037930060178</v>
       </c>
       <c r="P2">
-        <v>38.17691154802023</v>
+        <v>81.42430197134863</v>
       </c>
       <c r="Q2">
-        <v>1.799294575603394</v>
+        <v>1.521914810041176</v>
       </c>
       <c r="R2">
-        <v>123.9255695863245</v>
+        <v>167.6586399672088</v>
       </c>
       <c r="S2">
-        <v>6.045381400370417</v>
+        <v>4.580988525235002</v>
       </c>
       <c r="T2">
-        <v>3.127255529685903</v>
+        <v>2.759247163526008</v>
       </c>
       <c r="U2">
-        <v>1.140155792337516</v>
+        <v>1.014957875683016</v>
       </c>
       <c r="V2">
-        <v>42.07861847926152</v>
+        <v>64.13200351485628</v>
       </c>
       <c r="W2">
-        <v>387.5378133695559</v>
+        <v>326.6333249643211</v>
       </c>
       <c r="X2">
         <v>478.2196061557697</v>
       </c>
       <c r="Y2">
-        <v>285.6025267078019</v>
+        <v>186.6401151211007</v>
       </c>
       <c r="Z2">
-        <v>1.356913112208014</v>
+        <v>1.750070314478677</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>194.9542768720488</v>
+        <v>336.1346268517956</v>
       </c>
       <c r="H3">
-        <v>48.67539604528287</v>
+        <v>87.13079858227763</v>
       </c>
       <c r="I3">
-        <v>146.2788808267659</v>
+        <v>249.003828269518</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>257.5081828504664</v>
+        <v>371.1674382795522</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.5680552719045406</v>
+        <v>0.6708665755371993</v>
       </c>
       <c r="O3">
-        <v>283.2419598259677</v>
+        <v>426.4250195157807</v>
       </c>
       <c r="P3">
-        <v>25.7337769755013</v>
+        <v>55.2575812362284</v>
       </c>
       <c r="Q3">
-        <v>2.39849710587713</v>
+        <v>2.04343099936318</v>
       </c>
       <c r="R3">
-        <v>195.785793251439</v>
+        <v>258.2523838316139</v>
       </c>
       <c r="S3">
-        <v>11.00662215638286</v>
+        <v>7.717040991946361</v>
       </c>
       <c r="T3">
-        <v>4.005191384384057</v>
+        <v>3.857816435991731</v>
       </c>
       <c r="U3">
-        <v>1.387591365741651</v>
+        <v>1.350101333256113</v>
       </c>
       <c r="V3">
-        <v>78.73732155027608</v>
+        <v>131.3684209359152</v>
       </c>
       <c r="W3">
-        <v>332.0867258223873</v>
+        <v>229.3617783796352</v>
       </c>
       <c r="X3">
         <v>478.3656066491532</v>
       </c>
       <c r="Y3">
-        <v>220.8574237986868</v>
+        <v>107.198168369601</v>
       </c>
       <c r="Z3">
-        <v>1.503624918332321</v>
+        <v>2.13960538568938</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>204.0479061249293</v>
+        <v>319.1963344366097</v>
       </c>
       <c r="H4">
-        <v>48.08363079050345</v>
+        <v>41.27420844211868</v>
       </c>
       <c r="I4">
-        <v>155.9642753344258</v>
+        <v>277.922125994491</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>259.6985395990607</v>
+        <v>419.8817802072746</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.6005589233393978</v>
+        <v>0.6619056579623313</v>
       </c>
       <c r="O4">
-        <v>278.7605122904465</v>
+        <v>486.3572200209211</v>
       </c>
       <c r="P4">
-        <v>19.06197269138574</v>
+        <v>66.47543981364659</v>
       </c>
       <c r="Q4">
-        <v>2.682657642422174</v>
+        <v>1.990110821190765</v>
       </c>
       <c r="R4">
-        <v>208.561792878872</v>
+        <v>287.5882880907211</v>
       </c>
       <c r="S4">
-        <v>14.62390681193351</v>
+        <v>7.316344523396113</v>
       </c>
       <c r="T4">
-        <v>4.243604377838059</v>
+        <v>7.733554354754932</v>
       </c>
       <c r="U4">
-        <v>1.445412997235509</v>
+        <v>2.045568569951985</v>
       </c>
       <c r="V4">
-        <v>86.46357043555868</v>
+        <v>193.4929024556462</v>
       </c>
       <c r="W4">
-        <v>396.4470159721914</v>
+        <v>274.4891653121263</v>
       </c>
       <c r="X4">
         <v>552.4112913066173</v>
       </c>
       <c r="Y4">
-        <v>292.7127517075565</v>
+        <v>132.5295110993427</v>
       </c>
       <c r="Z4">
-        <v>1.354389290044575</v>
+        <v>2.07115504339537</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>261.9110173973</v>
+        <v>311.2526388498007</v>
       </c>
       <c r="H5">
-        <v>80.23438538652124</v>
+        <v>80.36938882093222</v>
       </c>
       <c r="I5">
-        <v>181.6766320107788</v>
+        <v>230.8832500288685</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>266.351210536168</v>
+        <v>372.9450965464976</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.6820942606007373</v>
+        <v>0.6190810716292197</v>
       </c>
       <c r="O5">
-        <v>299.4720256054616</v>
+        <v>447.6233396398609</v>
       </c>
       <c r="P5">
-        <v>33.12081506929357</v>
+        <v>74.67824309336345</v>
       </c>
       <c r="Q5">
-        <v>2.201859070744191</v>
+        <v>1.790763326447614</v>
       </c>
       <c r="R5">
-        <v>193.423843445403</v>
+        <v>239.2140375313624</v>
       </c>
       <c r="S5">
-        <v>9.041807243539221</v>
+        <v>5.994026119230443</v>
       </c>
       <c r="T5">
-        <v>3.264323844889813</v>
+        <v>3.872775983693121</v>
       </c>
       <c r="U5">
-        <v>1.18305264936454</v>
+        <v>1.35397155834678</v>
       </c>
       <c r="V5">
-        <v>86.75512980911931</v>
+        <v>122.0653834036126</v>
       </c>
       <c r="W5">
-        <v>341.8970181613865</v>
+        <v>292.6904001432969</v>
       </c>
       <c r="X5">
         <v>523.5736501721653</v>
       </c>
       <c r="Y5">
-        <v>257.2224396359974</v>
+        <v>150.6285536256678</v>
       </c>
       <c r="Z5">
-        <v>1.329188147990566</v>
+        <v>1.943126937742972</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>180.1032396578179</v>
+        <v>322.2699941498955</v>
       </c>
       <c r="H6">
-        <v>77.40057842070854</v>
+        <v>129.0429531911966</v>
       </c>
       <c r="I6">
-        <v>102.7026612371094</v>
+        <v>193.227040958699</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>245.8956033677208</v>
+        <v>399.1337615940126</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>0.4176677412305102</v>
+        <v>0.4841160020816378</v>
       </c>
       <c r="O6">
-        <v>273.0630472590049</v>
+        <v>460.2216197505107</v>
       </c>
       <c r="P6">
-        <v>27.16744389128417</v>
+        <v>61.08785815649793</v>
       </c>
       <c r="Q6">
-        <v>2.307683370197973</v>
+        <v>2.019395029942719</v>
       </c>
       <c r="R6">
-        <v>183.2017448890178</v>
+        <v>275.773244442935</v>
       </c>
       <c r="S6">
-        <v>10.05111295533433</v>
+        <v>7.533765851987999</v>
       </c>
       <c r="T6">
-        <v>2.326897851833511</v>
+        <v>2.497385453294795</v>
       </c>
       <c r="U6">
-        <v>0.8445359864221959</v>
+        <v>0.9152443659421327</v>
       </c>
       <c r="V6">
-        <v>37.33508739092775</v>
+        <v>75.12120508592194</v>
       </c>
       <c r="W6">
-        <v>410.0736928410729</v>
+        <v>319.5493131194834</v>
       </c>
       <c r="X6">
         <v>512.7763540781823</v>
       </c>
       <c r="Y6">
-        <v>266.8807507104615</v>
+        <v>113.6425924841697</v>
       </c>
       <c r="Z6">
-        <v>1.536542788303084</v>
+        <v>2.811879825462416</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>207.5508004390344</v>
+        <v>282.0627265080808</v>
       </c>
       <c r="H7">
-        <v>37.44367795651677</v>
+        <v>65.57985014154303</v>
       </c>
       <c r="I7">
-        <v>170.1071224825177</v>
+        <v>216.4828763665378</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>258.8919524626767</v>
+        <v>390.6974891628471</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.6570583630135868</v>
+        <v>0.5540933391468643</v>
       </c>
       <c r="O7">
-        <v>301.5673605856303</v>
+        <v>450.0749315912949</v>
       </c>
       <c r="P7">
-        <v>42.67540812295366</v>
+        <v>59.37744242844791</v>
       </c>
       <c r="Q7">
-        <v>1.955370577258947</v>
+        <v>2.025499686403887</v>
       </c>
       <c r="R7">
-        <v>175.4457150465356</v>
+        <v>270.4284981445609</v>
       </c>
       <c r="S7">
-        <v>7.066537236545547</v>
+        <v>7.579897570254098</v>
       </c>
       <c r="T7">
-        <v>5.543013180491045</v>
+        <v>4.301057808142227</v>
       </c>
       <c r="U7">
-        <v>1.712538248297198</v>
+        <v>1.458860994339554</v>
       </c>
       <c r="V7">
-        <v>105.9833918250601</v>
+        <v>120.8109909804074</v>
       </c>
       <c r="W7">
-        <v>350.8934001475854</v>
+        <v>304.5176462635653</v>
       </c>
       <c r="X7">
         <v>521.0005226301031</v>
       </c>
       <c r="Y7">
-        <v>262.1085701674264</v>
+        <v>130.303033467256</v>
       </c>
       <c r="Z7">
-        <v>1.338733029307078</v>
+        <v>2.336995833179033</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>249.4599991004713</v>
+        <v>351.5023317441753</v>
       </c>
       <c r="H8">
-        <v>79.05882972441798</v>
+        <v>87.22427635831481</v>
       </c>
       <c r="I8">
-        <v>170.4011693760533</v>
+        <v>264.2780553858605</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>242.91942705006</v>
+        <v>381.918930241629</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.7014719713666113</v>
+        <v>0.691974224002616</v>
       </c>
       <c r="O8">
-        <v>280.3644216600027</v>
+        <v>449.5196933051233</v>
       </c>
       <c r="P8">
-        <v>37.44499460994281</v>
+        <v>67.6007630634944</v>
       </c>
       <c r="Q8">
-        <v>2.013217217117814</v>
+        <v>1.894560393625058</v>
       </c>
       <c r="R8">
-        <v>167.5345192064393</v>
+        <v>253.8452019627007</v>
       </c>
       <c r="S8">
-        <v>7.48736712557991</v>
+        <v>6.649624544665412</v>
       </c>
       <c r="T8">
-        <v>3.155371765178349</v>
+        <v>4.029868133273056</v>
       </c>
       <c r="U8">
-        <v>1.14910632270533</v>
+        <v>1.393733654151045</v>
       </c>
       <c r="V8">
-        <v>79.55416827404052</v>
+        <v>142.7106459663058</v>
       </c>
       <c r="W8">
-        <v>384.9394964953821</v>
+        <v>291.0626104855749</v>
       </c>
       <c r="X8">
         <v>555.3406658714354</v>
       </c>
       <c r="Y8">
-        <v>312.4212388213754</v>
+        <v>173.4217356298064</v>
       </c>
       <c r="Z8">
-        <v>1.232116926325449</v>
+        <v>1.678351386742489</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>160.5835213317023</v>
+        <v>262.7471712943723</v>
       </c>
       <c r="H9">
-        <v>42.82481166365903</v>
+        <v>100.9225430484055</v>
       </c>
       <c r="I9">
-        <v>117.7587096680433</v>
+        <v>161.8246282459668</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>220.8719254265128</v>
+        <v>379.2057562517795</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.5331538150022749</v>
+        <v>0.4267462336160341</v>
       </c>
       <c r="O9">
-        <v>242.9655287293755</v>
+        <v>441.573624509462</v>
       </c>
       <c r="P9">
-        <v>22.09360330286279</v>
+        <v>62.36786825768266</v>
       </c>
       <c r="Q9">
-        <v>2.39763145287959</v>
+        <v>1.957294555087371</v>
       </c>
       <c r="R9">
-        <v>167.8996072401245</v>
+        <v>257.1334672986106</v>
       </c>
       <c r="S9">
-        <v>10.99709836366498</v>
+        <v>7.080146184971902</v>
       </c>
       <c r="T9">
-        <v>3.749777642757805</v>
+        <v>2.603453731525084</v>
       </c>
       <c r="U9">
-        <v>1.3216965429597</v>
+        <v>0.9568389218189907</v>
       </c>
       <c r="V9">
-        <v>61.15730413928487</v>
+        <v>65.25801096829976</v>
       </c>
       <c r="W9">
-        <v>419.9194469012422</v>
+        <v>375.8535283233186</v>
       </c>
       <c r="X9">
         <v>537.6781565692854</v>
       </c>
       <c r="Y9">
-        <v>316.8062311427726</v>
+        <v>158.472400317506</v>
       </c>
       <c r="Z9">
-        <v>1.325477233785848</v>
+        <v>2.371728626374565</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>188.4867272683845</v>
+        <v>307.2938616367855</v>
       </c>
       <c r="H10">
-        <v>31.43961118262396</v>
+        <v>78.86849763843338</v>
       </c>
       <c r="I10">
-        <v>157.0471160857605</v>
+        <v>228.4253639983521</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>211.1114514106568</v>
+        <v>298.961345530412</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.7439061928491524</v>
+        <v>0.7640632055394446</v>
       </c>
       <c r="O10">
-        <v>248.5879288004344</v>
+        <v>367.7029747247605</v>
       </c>
       <c r="P10">
-        <v>37.47647738977754</v>
+        <v>68.74162919434829</v>
       </c>
       <c r="Q10">
-        <v>1.892083154627279</v>
+        <v>1.676920506400319</v>
       </c>
       <c r="R10">
-        <v>140.2028398466886</v>
+        <v>183.6870978910426</v>
       </c>
       <c r="S10">
-        <v>6.633172222004026</v>
+        <v>5.349058191291628</v>
       </c>
       <c r="T10">
-        <v>5.995199055532763</v>
+        <v>3.89628141575044</v>
       </c>
       <c r="U10">
-        <v>1.790958991520037</v>
+        <v>1.360022615140484</v>
       </c>
       <c r="V10">
-        <v>100.7400617483462</v>
+        <v>121.1624235879288</v>
       </c>
       <c r="W10">
-        <v>290.5501677014161</v>
+        <v>219.1719197888244</v>
       </c>
       <c r="X10">
         <v>447.5972837871765</v>
       </c>
       <c r="Y10">
-        <v>236.4858323765197</v>
+        <v>148.6359382567645</v>
       </c>
       <c r="Z10">
-        <v>1.228615535998867</v>
+        <v>1.474555362312249</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>164.4989174492976</v>
+        <v>320.5529257426955</v>
       </c>
       <c r="H11">
-        <v>28.35809279300904</v>
+        <v>76.09064254678771</v>
       </c>
       <c r="I11">
-        <v>136.1408246562885</v>
+        <v>244.4622831959078</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>228.0344728968007</v>
+        <v>400.182310288231</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.5970186126985304</v>
+        <v>0.6108772849550347</v>
       </c>
       <c r="O11">
-        <v>253.3923283527472</v>
+        <v>468.1085492187538</v>
       </c>
       <c r="P11">
-        <v>25.35785545594647</v>
+        <v>67.92623893052283</v>
       </c>
       <c r="Q11">
-        <v>2.301850430624389</v>
+        <v>1.930277816968314</v>
       </c>
       <c r="R11">
-        <v>169.6644823958193</v>
+        <v>269.0657980905532</v>
       </c>
       <c r="S11">
-        <v>9.99265607428668</v>
+        <v>6.891424530328412</v>
       </c>
       <c r="T11">
-        <v>5.800775060932539</v>
+        <v>4.2127772221872</v>
       </c>
       <c r="U11">
-        <v>1.757991539819786</v>
+        <v>1.438122102934429</v>
       </c>
       <c r="V11">
-        <v>86.28753744075422</v>
+        <v>135.0346483228895</v>
       </c>
       <c r="W11">
-        <v>426.0599397043064</v>
+        <v>317.7384811646871</v>
       </c>
       <c r="X11">
         <v>562.2007643605949</v>
       </c>
       <c r="Y11">
-        <v>334.1662914637943</v>
+        <v>162.0184540723639</v>
       </c>
       <c r="Z11">
-        <v>1.274993769832313</v>
+        <v>1.961125249490237</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>304.9916922607006</v>
+        <v>452.9685651743627</v>
       </c>
       <c r="H12">
-        <v>73.56570181501878</v>
+        <v>132.0341126465523</v>
       </c>
       <c r="I12">
-        <v>231.4259904456818</v>
+        <v>320.9344525278104</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>308.4738822357438</v>
+        <v>401.4279818900554</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
-        <v>0.750228799820466</v>
+        <v>0.7994820167162865</v>
       </c>
       <c r="O12">
-        <v>415.9982160556565</v>
+        <v>457.5842980528222</v>
       </c>
       <c r="P12">
-        <v>107.5243338199128</v>
+        <v>56.1563161627668</v>
       </c>
       <c r="Q12">
-        <v>1.352963788856946</v>
+        <v>2.09782196360735</v>
       </c>
       <c r="R12">
-        <v>162.9973521564354</v>
+        <v>283.6220284485248</v>
       </c>
       <c r="S12">
-        <v>3.868875084149708</v>
+        <v>8.148403052766723</v>
       </c>
       <c r="T12">
-        <v>4.145840857028772</v>
+        <v>3.430693448040458</v>
       </c>
       <c r="U12">
-        <v>1.422105628575664</v>
+        <v>1.232762412184324</v>
       </c>
       <c r="V12">
-        <v>126.8077918244247</v>
+        <v>158.1677613310299</v>
       </c>
       <c r="W12">
-        <v>279.8651539597713</v>
+        <v>190.3566918776427</v>
       </c>
       <c r="X12">
         <v>511.2911444054531</v>
       </c>
       <c r="Y12">
-        <v>202.8172621697094</v>
+        <v>109.8631625153977</v>
       </c>
       <c r="Z12">
-        <v>1.379888235181833</v>
+        <v>1.732670783539146</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>295.5777679517784</v>
+        <v>453.1044529096064</v>
       </c>
       <c r="H13">
-        <v>107.9843223148569</v>
+        <v>146.4476953620797</v>
       </c>
       <c r="I13">
-        <v>187.5934456369214</v>
+        <v>306.6567575475266</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>277.2227544246128</v>
+        <v>408.5497481898888</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.676688484775643</v>
+        <v>0.750598327146677</v>
       </c>
       <c r="O13">
-        <v>337.622191840096</v>
+        <v>475.4995497494618</v>
       </c>
       <c r="P13">
-        <v>60.39943741548325</v>
+        <v>66.949801559573</v>
       </c>
       <c r="Q13">
-        <v>1.720947704100717</v>
+        <v>1.960422826962439</v>
       </c>
       <c r="R13">
-        <v>173.278481275462</v>
+        <v>277.2998289518964</v>
       </c>
       <c r="S13">
-        <v>5.58982345344739</v>
+        <v>7.102329486762627</v>
       </c>
       <c r="T13">
-        <v>2.737228531100496</v>
+        <v>3.093967793684587</v>
       </c>
       <c r="U13">
-        <v>1.006945923503995</v>
+        <v>1.129454342815698</v>
       </c>
       <c r="V13">
-        <v>78.85907247963479</v>
+        <v>141.2507720254754</v>
       </c>
       <c r="W13">
-        <v>358.5755500757029</v>
+        <v>239.5122381650977</v>
       </c>
       <c r="X13">
         <v>546.1689957126243</v>
       </c>
       <c r="Y13">
-        <v>268.9462412880115</v>
+        <v>137.6192475227356</v>
       </c>
       <c r="Z13">
-        <v>1.333261057520073</v>
+        <v>1.740397818448533</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>228.0282718636336</v>
+        <v>370.3104023676058</v>
       </c>
       <c r="H14">
-        <v>74.86222606211993</v>
+        <v>111.094175935329</v>
       </c>
       <c r="I14">
-        <v>153.1660458015137</v>
+        <v>259.2162264322769</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>306.8593045953947</v>
+        <v>396.6908421991858</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
-        <v>0.4991409532243735</v>
+        <v>0.6534464597045566</v>
       </c>
       <c r="O14">
-        <v>420.6194398029015</v>
+        <v>482.9013842246885</v>
       </c>
       <c r="P14">
-        <v>113.7601352075067</v>
+        <v>86.21054202550259</v>
       </c>
       <c r="Q14">
-        <v>1.307636326830914</v>
+        <v>1.72301999188693</v>
       </c>
       <c r="R14">
-        <v>158.1024192528625</v>
+        <v>248.1483547778366</v>
       </c>
       <c r="S14">
-        <v>3.697423873799562</v>
+        <v>5.601419187015873</v>
       </c>
       <c r="T14">
-        <v>3.045972366282804</v>
+        <v>3.333301671756168</v>
       </c>
       <c r="U14">
-        <v>1.113820182298792</v>
+        <v>1.203963305807676</v>
       </c>
       <c r="V14">
-        <v>69.7829875217099</v>
+        <v>125.4629151171987</v>
       </c>
       <c r="W14">
-        <v>356.56369095244</v>
+        <v>250.5135103216768</v>
       </c>
       <c r="X14">
         <v>509.7297367539537</v>
       </c>
       <c r="Y14">
-        <v>202.8704321585589</v>
+        <v>113.0388945547679</v>
       </c>
       <c r="Z14">
-        <v>1.757593194624626</v>
+        <v>2.216170914519178</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>194.5339395922448</v>
+        <v>418.3164747726007</v>
       </c>
       <c r="H15">
-        <v>51.001576046311</v>
+        <v>80.21520894259828</v>
       </c>
       <c r="I15">
-        <v>143.5323635459338</v>
+        <v>338.1012658300024</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>390.6900942415537</v>
+        <v>434.5139560675634</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N15">
-        <v>0.3673816297405059</v>
+        <v>0.7781137086824212</v>
       </c>
       <c r="O15">
-        <v>472.1998571462665</v>
+        <v>575.9436920518523</v>
       </c>
       <c r="P15">
-        <v>81.50976290471294</v>
+        <v>141.4297359842888</v>
       </c>
       <c r="Q15">
-        <v>1.756679518808926</v>
+        <v>1.404206870791189</v>
       </c>
       <c r="R15">
-        <v>247.5035631638728</v>
+        <v>235.9173490642412</v>
       </c>
       <c r="S15">
-        <v>5.793169312715098</v>
+        <v>4.072295603491989</v>
       </c>
       <c r="T15">
-        <v>3.814273100415604</v>
+        <v>5.214927197558589</v>
       </c>
       <c r="U15">
-        <v>1.338750109338277</v>
+        <v>1.651525128155596</v>
       </c>
       <c r="V15">
-        <v>75.25399803751051</v>
+        <v>205.6238326010499</v>
       </c>
       <c r="W15">
-        <v>442.7873129047388</v>
+        <v>248.2184106206702</v>
       </c>
       <c r="X15">
         <v>586.3196764506727</v>
       </c>
       <c r="Y15">
-        <v>195.629582209119</v>
+        <v>151.8057203831092</v>
       </c>
       <c r="Z15">
-        <v>2.263396506318863</v>
+        <v>1.635105778584931</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>130.7024570276635</v>
+        <v>376.6446513197897</v>
       </c>
       <c r="H16">
-        <v>24.69114335926599</v>
+        <v>90.93629815111477</v>
       </c>
       <c r="I16">
-        <v>106.0113136683975</v>
+        <v>285.7083531686749</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>300.4613477025893</v>
+        <v>394.0685958941361</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.3528284569013265</v>
+        <v>0.7250218772709016</v>
       </c>
       <c r="O16">
-        <v>348.3457122435915</v>
+        <v>515.1078073503331</v>
       </c>
       <c r="P16">
-        <v>47.88436454100227</v>
+        <v>121.0392114561971</v>
       </c>
       <c r="Q16">
-        <v>1.984406380278322</v>
+        <v>1.448261658695556</v>
       </c>
       <c r="R16">
-        <v>205.4393091918513</v>
+        <v>218.772146743382</v>
       </c>
       <c r="S16">
-        <v>7.274727681627918</v>
+        <v>4.255710204595523</v>
       </c>
       <c r="T16">
-        <v>5.2934955310044</v>
+        <v>4.14185159257192</v>
       </c>
       <c r="U16">
-        <v>1.666478808558833</v>
+        <v>1.421142932435765</v>
       </c>
       <c r="V16">
-        <v>64.86404650109256</v>
+        <v>156.4748757493466</v>
       </c>
       <c r="W16">
-        <v>419.0249569547793</v>
+        <v>239.327917454502</v>
       </c>
       <c r="X16">
         <v>525.0362706231768</v>
       </c>
       <c r="Y16">
-        <v>224.5749229205875</v>
+        <v>130.9676747290407</v>
       </c>
       <c r="Z16">
-        <v>1.865858180002367</v>
+        <v>1.827381588240365</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>324.6004767379196</v>
+        <v>426.6078264086524</v>
       </c>
       <c r="H17">
-        <v>123.4782862000495</v>
+        <v>121.6315686878943</v>
       </c>
       <c r="I17">
-        <v>201.1221905378701</v>
+        <v>304.976257720758</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>335.3386756035138</v>
+        <v>428.2727758151916</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.5997584089455463</v>
+        <v>0.7121075047094786</v>
       </c>
       <c r="O17">
-        <v>374.8852493269641</v>
+        <v>498.9948395090227</v>
       </c>
       <c r="P17">
-        <v>39.54657372345018</v>
+        <v>70.72206369383105</v>
       </c>
       <c r="Q17">
-        <v>2.249140918404937</v>
+        <v>1.953838154938083</v>
       </c>
       <c r="R17">
-        <v>246.3928584593847</v>
+        <v>290.0933093742232</v>
       </c>
       <c r="S17">
-        <v>9.479588597195363</v>
+        <v>7.055716610155271</v>
       </c>
       <c r="T17">
-        <v>2.628806138530529</v>
+        <v>3.507377492625494</v>
       </c>
       <c r="U17">
-        <v>0.9665298034056147</v>
+        <v>1.254868605121641</v>
       </c>
       <c r="V17">
-        <v>81.77674685207407</v>
+        <v>152.344620782623</v>
       </c>
       <c r="W17">
-        <v>335.1723157524455</v>
+        <v>231.3182485695575</v>
       </c>
       <c r="X17">
         <v>536.2945062903156</v>
       </c>
       <c r="Y17">
-        <v>200.9558306868017</v>
+        <v>108.0217304751239</v>
       </c>
       <c r="Z17">
-        <v>1.667890474274548</v>
+        <v>2.141404766912406</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>192.9701228182658</v>
+        <v>311.3403314200318</v>
       </c>
       <c r="H18">
-        <v>48.52201851558586</v>
+        <v>69.88753282435638</v>
       </c>
       <c r="I18">
-        <v>144.44810430268</v>
+        <v>241.4527985956754</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>289.9154045641641</v>
+        <v>411.1229061476853</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
-        <v>0.4982422528386577</v>
+        <v>0.5873007681769494</v>
       </c>
       <c r="O18">
-        <v>421.1499662278823</v>
+        <v>458.3048916302611</v>
       </c>
       <c r="P18">
-        <v>131.2345616637182</v>
+        <v>47.18198548257575</v>
       </c>
       <c r="Q18">
-        <v>1.166002715437103</v>
+        <v>2.273522508647503</v>
       </c>
       <c r="R18">
-        <v>136.8955493050707</v>
+        <v>303.8536001503696</v>
       </c>
       <c r="S18">
-        <v>3.209139123785527</v>
+        <v>9.713556709043379</v>
       </c>
       <c r="T18">
-        <v>3.976959918851717</v>
+        <v>4.454876554341995</v>
       </c>
       <c r="U18">
-        <v>1.380517687937835</v>
+        <v>1.493999351075782</v>
       </c>
       <c r="V18">
-        <v>77.46259948746662</v>
+        <v>137.0408699077996</v>
       </c>
       <c r="W18">
-        <v>411.7128808382937</v>
+        <v>314.7081865452983</v>
       </c>
       <c r="X18">
         <v>556.1609851409737</v>
       </c>
       <c r="Y18">
-        <v>266.2455805768096</v>
+        <v>145.0380789932884</v>
       </c>
       <c r="Z18">
-        <v>1.546365126310587</v>
+        <v>2.169831458949903</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>299.8492970089192</v>
+        <v>352.3725876863017</v>
       </c>
       <c r="H19">
-        <v>88.31248154020651</v>
+        <v>121.927874744253</v>
       </c>
       <c r="I19">
-        <v>211.5368154687127</v>
+        <v>230.4447129420487</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>287.34191685835</v>
+        <v>404.2351852412138</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N19">
-        <v>0.7361850222952098</v>
+        <v>0.5700758403911291</v>
       </c>
       <c r="O19">
-        <v>362.8039938797115</v>
+        <v>468.0820875544491</v>
       </c>
       <c r="P19">
-        <v>75.46207702136142</v>
+        <v>63.84690231323533</v>
       </c>
       <c r="Q19">
-        <v>1.570232487712373</v>
+        <v>1.992155615055324</v>
       </c>
       <c r="R19">
-        <v>168.8489119291551</v>
+        <v>277.0422202940132</v>
       </c>
       <c r="S19">
-        <v>4.807765810328952</v>
+        <v>7.331320245703081</v>
       </c>
       <c r="T19">
-        <v>3.395321836499467</v>
+        <v>2.89000844495496</v>
       </c>
       <c r="U19">
-        <v>1.222398553719299</v>
+        <v>1.061259424249815</v>
       </c>
       <c r="V19">
-        <v>103.583765758602</v>
+        <v>101.0476067909592</v>
       </c>
       <c r="W19">
-        <v>323.9476322866975</v>
+        <v>305.0397348133615</v>
       </c>
       <c r="X19">
         <v>535.4844477554102</v>
       </c>
       <c r="Y19">
-        <v>248.1425308970602</v>
+        <v>131.2492625141964</v>
       </c>
       <c r="Z19">
-        <v>1.305490159690055</v>
+        <v>2.324125324364145</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>262.0512518442002</v>
+        <v>451.220128778403</v>
       </c>
       <c r="H20">
-        <v>111.9927422744654</v>
+        <v>117.7236175757025</v>
       </c>
       <c r="I20">
-        <v>150.0585095697349</v>
+        <v>333.4965112027005</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>369.1263077810806</v>
+        <v>438.1831258000982</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>0.4065234755869277</v>
+        <v>0.7610893518406358</v>
       </c>
       <c r="O20">
-        <v>432.546919022818</v>
+        <v>530.12823291384</v>
       </c>
       <c r="P20">
-        <v>63.4206112417376</v>
+        <v>91.94510711374195</v>
       </c>
       <c r="Q20">
-        <v>1.919901896717551</v>
+        <v>1.751927189006897</v>
       </c>
       <c r="R20">
-        <v>247.364955967082</v>
+        <v>277.101992751382</v>
       </c>
       <c r="S20">
-        <v>6.820289343697707</v>
+        <v>5.765703576352764</v>
       </c>
       <c r="T20">
-        <v>2.339894947852782</v>
+        <v>3.832876852329522</v>
       </c>
       <c r="U20">
-        <v>0.8501060342818331</v>
+        <v>1.343615657609276</v>
       </c>
       <c r="V20">
-        <v>54.85280356644171</v>
+        <v>175.3212153575801</v>
       </c>
       <c r="W20">
-        <v>410.5610266063208</v>
+        <v>227.1230249733551</v>
       </c>
       <c r="X20">
         <v>560.6195361760556</v>
       </c>
       <c r="Y20">
-        <v>191.493228394975</v>
+        <v>122.4364103759574</v>
       </c>
       <c r="Z20">
-        <v>2.143997623558235</v>
+        <v>1.855028453349322</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>313.391113760587</v>
+        <v>426.145471277726</v>
       </c>
       <c r="H21">
-        <v>150.1729366311156</v>
+        <v>123.9089181878518</v>
       </c>
       <c r="I21">
-        <v>163.2181771294714</v>
+        <v>302.2365530898742</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K21">
-        <v>265.5299125510287</v>
+        <v>354.4506322126106</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N21">
-        <v>0.6146884754391078</v>
+        <v>0.8526901227491204</v>
       </c>
       <c r="O21">
-        <v>322.1264147627818</v>
+        <v>466.7753544182077</v>
       </c>
       <c r="P21">
-        <v>56.59650221175315</v>
+        <v>112.3247222055971</v>
       </c>
       <c r="Q21">
-        <v>1.738996876010544</v>
+        <v>1.424454120319943</v>
       </c>
       <c r="R21">
-        <v>167.1087720116661</v>
+        <v>194.4492188530547</v>
       </c>
       <c r="S21">
-        <v>5.69163114634825</v>
+        <v>4.155588772023228</v>
       </c>
       <c r="T21">
-        <v>2.086868118790273</v>
+        <v>3.43918321223392</v>
       </c>
       <c r="U21">
-        <v>0.7356644343352142</v>
+        <v>1.235234004888277</v>
       </c>
       <c r="V21">
-        <v>52.74128865028381</v>
+        <v>149.1800438353202</v>
       </c>
       <c r="W21">
-        <v>313.7552950315996</v>
+        <v>174.7369190711968</v>
       </c>
       <c r="X21">
         <v>476.9734721610711</v>
       </c>
       <c r="Y21">
-        <v>211.4435596100424</v>
+        <v>122.5228399484605</v>
       </c>
       <c r="Z21">
-        <v>1.483872554975177</v>
+        <v>1.426157924062977</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>145.3666529167238</v>
+        <v>345.8402511458082</v>
       </c>
       <c r="H22">
-        <v>16.46892228767839</v>
+        <v>47.14087118421024</v>
       </c>
       <c r="I22">
-        <v>128.8977306290454</v>
+        <v>298.699379961598</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>358.9055269285175</v>
+        <v>506.8292870723187</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.3591411136299322</v>
+        <v>0.5893490916577143</v>
       </c>
       <c r="O22">
-        <v>374.7923865089813</v>
+        <v>554.3985206092869</v>
       </c>
       <c r="P22">
-        <v>15.88685958046365</v>
+        <v>47.56923353696806</v>
       </c>
       <c r="Q22">
-        <v>3.160879910626495</v>
+        <v>2.45569758142344</v>
       </c>
       <c r="R22">
-        <v>308.689071637686</v>
+        <v>390.0136353254196</v>
       </c>
       <c r="S22">
-        <v>23.59134507425685</v>
+        <v>11.65456071892435</v>
       </c>
       <c r="T22">
-        <v>8.826725293705666</v>
+        <v>7.336314379816699</v>
       </c>
       <c r="U22">
-        <v>2.17778408441478</v>
+        <v>1.99283658842753</v>
       </c>
       <c r="V22">
-        <v>93.03197378347555</v>
+        <v>204.7553270553548</v>
       </c>
       <c r="W22">
-        <v>430.6288870511887</v>
+        <v>260.8272377186361</v>
       </c>
       <c r="X22">
         <v>559.526617680234</v>
       </c>
       <c r="Y22">
-        <v>200.6210907517166</v>
+        <v>52.69733060791532</v>
       </c>
       <c r="Z22">
-        <v>2.146478645079862</v>
+        <v>4.949534154951274</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>144.761278377877</v>
+        <v>251.0223698886766</v>
       </c>
       <c r="H23">
-        <v>33.31083865068108</v>
+        <v>44.94005939462275</v>
       </c>
       <c r="I23">
-        <v>111.4504397271959</v>
+        <v>206.0823104940538</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>296.9579787478386</v>
+        <v>456.8674158090254</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.3753071064032055</v>
+        <v>0.451076840595255</v>
       </c>
       <c r="O23">
-        <v>318.6587658922971</v>
+        <v>483.2874397381322</v>
       </c>
       <c r="P23">
-        <v>21.70078714445859</v>
+        <v>26.42002392910687</v>
       </c>
       <c r="Q23">
-        <v>2.686772297024211</v>
+        <v>2.906489385159144</v>
       </c>
       <c r="R23">
-        <v>238.652905024488</v>
+        <v>380.0778967034256</v>
       </c>
       <c r="S23">
-        <v>14.68420310152981</v>
+        <v>18.29246790369844</v>
       </c>
       <c r="T23">
-        <v>4.345771053558184</v>
+        <v>5.585715134117343</v>
       </c>
       <c r="U23">
-        <v>1.469203200639471</v>
+        <v>1.720212469824011</v>
       </c>
       <c r="V23">
-        <v>62.51004896563025</v>
+        <v>128.7758599287921</v>
       </c>
       <c r="W23">
-        <v>395.5879007756494</v>
+        <v>300.9560300087915</v>
       </c>
       <c r="X23">
         <v>507.0383405028453</v>
       </c>
       <c r="Y23">
-        <v>210.0803617550067</v>
+        <v>50.17092469381987</v>
       </c>
       <c r="Z23">
-        <v>1.883031319400428</v>
+        <v>5.99861437367256</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>181.1292697395103</v>
+        <v>256.7595898875161</v>
       </c>
       <c r="H24">
-        <v>10.44996607960312</v>
+        <v>43.69836462393002</v>
       </c>
       <c r="I24">
-        <v>170.6793036599072</v>
+        <v>213.0612252635861</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>309.9798888976302</v>
+        <v>450.5914819641637</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.5506141197317271</v>
+        <v>0.4728478761623178</v>
       </c>
       <c r="O24">
-        <v>324.5934437629356</v>
+        <v>482.0531253370297</v>
       </c>
       <c r="P24">
-        <v>14.6135548653054</v>
+        <v>31.46164337286607</v>
       </c>
       <c r="Q24">
-        <v>3.100623943545315</v>
+        <v>2.729285193352958</v>
       </c>
       <c r="R24">
-        <v>264.6687507819511</v>
+        <v>364.7236845480491</v>
       </c>
       <c r="S24">
-        <v>22.21180587165449</v>
+        <v>15.32193088657199</v>
       </c>
       <c r="T24">
-        <v>17.33300073509803</v>
+        <v>5.875725375473432</v>
       </c>
       <c r="U24">
-        <v>2.85261224136949</v>
+        <v>1.770829520574347</v>
       </c>
       <c r="V24">
-        <v>140.8696024993354</v>
+        <v>135.6788711867092</v>
       </c>
       <c r="W24">
-        <v>352.9334806963194</v>
+        <v>310.5515590926404</v>
       </c>
       <c r="X24">
         <v>523.6127843562266</v>
       </c>
       <c r="Y24">
-        <v>213.6328954585964</v>
+        <v>73.02130239206286</v>
       </c>
       <c r="Z24">
-        <v>1.652055878092615</v>
+        <v>4.252889895406689</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>147.1047798966458</v>
+        <v>299.0063323948654</v>
       </c>
       <c r="H25">
-        <v>28.08598240566123</v>
+        <v>33.41654945743193</v>
       </c>
       <c r="I25">
-        <v>119.0187974909846</v>
+        <v>265.5897829374334</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>296.6278663434629</v>
+        <v>440.8808349435476</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>0.4012394349800356</v>
+        <v>0.6024071855412829</v>
       </c>
       <c r="O25">
-        <v>307.6886355861905</v>
+        <v>479.3977562864432</v>
       </c>
       <c r="P25">
-        <v>11.06076924272756</v>
+        <v>38.51692134289554</v>
       </c>
       <c r="Q25">
-        <v>3.325683802765135</v>
+        <v>2.52143298160075</v>
       </c>
       <c r="R25">
-        <v>259.8432452268012</v>
+        <v>343.762999119849</v>
       </c>
       <c r="S25">
-        <v>27.81801417550551</v>
+        <v>12.44641938068262</v>
       </c>
       <c r="T25">
-        <v>5.237658336886027</v>
+        <v>8.947851805458196</v>
       </c>
       <c r="U25">
-        <v>1.655874516177651</v>
+        <v>2.191413481740422</v>
       </c>
       <c r="V25">
-        <v>72.51193496363626</v>
+        <v>192.3603059431715</v>
       </c>
       <c r="W25">
-        <v>378.4902815637753</v>
+        <v>231.9192961173264</v>
       </c>
       <c r="X25">
         <v>497.5090790547599</v>
       </c>
       <c r="Y25">
-        <v>200.8812127112969</v>
+        <v>56.62824411121227</v>
       </c>
       <c r="Z25">
-        <v>1.884149724383311</v>
+        <v>4.095470374498278</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>186.2686611787689</v>
+        <v>361.1157107107388</v>
       </c>
       <c r="H26">
-        <v>35.27911728950696</v>
+        <v>76.03023570658934</v>
       </c>
       <c r="I26">
-        <v>150.989543889262</v>
+        <v>285.0854750041495</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>297.5815509110373</v>
+        <v>442.237719871928</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.5073887928435478</v>
+        <v>0.6446430555193486</v>
       </c>
       <c r="O26">
-        <v>304.4188535900544</v>
+        <v>476.101568675695</v>
       </c>
       <c r="P26">
-        <v>6.83730267901715</v>
+        <v>33.863848803767</v>
       </c>
       <c r="Q26">
-        <v>3.796011252274924</v>
+        <v>2.643283172638629</v>
       </c>
       <c r="R26">
-        <v>271.6270730062787</v>
+        <v>352.725978168152</v>
       </c>
       <c r="S26">
-        <v>44.52323787336179</v>
+        <v>14.05928698284094</v>
       </c>
       <c r="T26">
-        <v>5.27985605904518</v>
+        <v>4.749632923726973</v>
       </c>
       <c r="U26">
-        <v>1.663898835802094</v>
+        <v>1.558067335844983</v>
       </c>
       <c r="V26">
-        <v>92.28866170312581</v>
+        <v>166.6252482131177</v>
       </c>
       <c r="W26">
-        <v>334.2628943725794</v>
+        <v>200.1669632576918</v>
       </c>
       <c r="X26">
         <v>485.2524382618413</v>
       </c>
       <c r="Y26">
-        <v>187.670887350804</v>
+        <v>43.01471838991324</v>
       </c>
       <c r="Z26">
-        <v>1.781112132473473</v>
+        <v>4.653452835451552</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>288.3240549250802</v>
+        <v>470.6667799143993</v>
       </c>
       <c r="H27">
-        <v>8.497914155045454</v>
+        <v>44.69211944372496</v>
       </c>
       <c r="I27">
-        <v>279.8261407700347</v>
+        <v>425.9746604706744</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>300.8587115104302</v>
+        <v>482.194660157151</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0.9300915348776053</v>
+        <v>0.8834080832248244</v>
       </c>
       <c r="O27">
-        <v>314.9959075724033</v>
+        <v>513.5031305885631</v>
       </c>
       <c r="P27">
-        <v>14.13719606197313</v>
+        <v>31.30847043141211</v>
       </c>
       <c r="Q27">
-        <v>3.103750304407467</v>
+        <v>2.797367444172983</v>
       </c>
       <c r="R27">
-        <v>256.980384929613</v>
+        <v>394.6133642454662</v>
       </c>
       <c r="S27">
-        <v>22.28135665598453</v>
+        <v>16.40141225402567</v>
       </c>
       <c r="T27">
-        <v>33.92880295853471</v>
+        <v>10.53131482177858</v>
       </c>
       <c r="U27">
-        <v>3.524264298437122</v>
+        <v>2.354353182717415</v>
       </c>
       <c r="V27">
-        <v>249.8772453022246</v>
+        <v>320.7536268159537</v>
       </c>
       <c r="W27">
-        <v>257.1371309040925</v>
+        <v>110.9886112034528</v>
       </c>
       <c r="X27">
         <v>536.9632716741272</v>
       </c>
       <c r="Y27">
-        <v>236.104560163697</v>
+        <v>54.76861151697619</v>
       </c>
       <c r="Z27">
-        <v>1.089081594721479</v>
+        <v>2.026500364520845</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>83.7323843636166</v>
+        <v>244.7244682346488</v>
       </c>
       <c r="H28">
-        <v>29.61795061998165</v>
+        <v>72.53667934061005</v>
       </c>
       <c r="I28">
-        <v>54.11443374363495</v>
+        <v>172.1877888940388</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>346.924982384792</v>
+        <v>495.4272329501111</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.1559830986273969</v>
+        <v>0.3475541460825951</v>
       </c>
       <c r="O28">
-        <v>353.1497625831603</v>
+        <v>535.1268424170505</v>
       </c>
       <c r="P28">
-        <v>6.224780198368315</v>
+        <v>39.69960946693949</v>
       </c>
       <c r="Q28">
-        <v>4.038354091343117</v>
+        <v>2.601162456884979</v>
       </c>
       <c r="R28">
-        <v>321.7871158029997</v>
+        <v>392.1620992517126</v>
       </c>
       <c r="S28">
-        <v>56.73288876541063</v>
+        <v>13.47939815031899</v>
       </c>
       <c r="T28">
-        <v>2.827082313626617</v>
+        <v>3.373803025714723</v>
       </c>
       <c r="U28">
-        <v>1.039245195240735</v>
+        <v>1.21604060237061</v>
       </c>
       <c r="V28">
-        <v>23.33412086894168</v>
+        <v>83.98024165471956</v>
       </c>
       <c r="W28">
-        <v>495.3739492005002</v>
+        <v>377.3005940500964</v>
       </c>
       <c r="X28">
         <v>549.4883829441352</v>
       </c>
       <c r="Y28">
-        <v>202.5634005593432</v>
+        <v>54.06114999402411</v>
       </c>
       <c r="Z28">
-        <v>2.445525439603661</v>
+        <v>6.979144803464282</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>157.5080012758299</v>
+        <v>192.5796797042259</v>
       </c>
       <c r="H29">
-        <v>26.42746959966358</v>
+        <v>45.32170396505591</v>
       </c>
       <c r="I29">
-        <v>131.0805316761663</v>
+        <v>147.25797573917</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>308.1340763707825</v>
+        <v>432.11698493145</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.425400959283825</v>
+        <v>0.3407826604236133</v>
       </c>
       <c r="O29">
-        <v>326.6632836478669</v>
+        <v>459.4911857614626</v>
       </c>
       <c r="P29">
-        <v>18.52920727708432</v>
+        <v>27.37420083001247</v>
       </c>
       <c r="Q29">
-        <v>2.869581667894255</v>
+        <v>2.82051876508705</v>
       </c>
       <c r="R29">
-        <v>254.9630028478486</v>
+        <v>354.9075378111385</v>
       </c>
       <c r="S29">
-        <v>17.62964161191407</v>
+        <v>16.78555617439931</v>
       </c>
       <c r="T29">
-        <v>5.960010688190705</v>
+        <v>4.249171210612675</v>
       </c>
       <c r="U29">
-        <v>1.785072274396238</v>
+        <v>1.44672395465194</v>
       </c>
       <c r="V29">
-        <v>83.90558841135737</v>
+        <v>81.68998094727978</v>
       </c>
       <c r="W29">
-        <v>362.1458324314951</v>
+        <v>345.9683883684914</v>
       </c>
       <c r="X29">
         <v>493.2263641076614</v>
       </c>
       <c r="Y29">
-        <v>185.0922877368789</v>
+        <v>61.10937917621141</v>
       </c>
       <c r="Z29">
-        <v>1.956569000575052</v>
+        <v>5.66146135065253</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>177.6102482689174</v>
+        <v>364.0340993560187</v>
       </c>
       <c r="H30">
-        <v>19.35076738924162</v>
+        <v>42.58975702319972</v>
       </c>
       <c r="I30">
-        <v>158.2594808796758</v>
+        <v>321.4443423328189</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>309.7956350620723</v>
+        <v>453.3187195470256</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.5108512289011627</v>
+        <v>0.7090912606786217</v>
       </c>
       <c r="O30">
-        <v>327.5859822343299</v>
+        <v>489.3838804268715</v>
       </c>
       <c r="P30">
-        <v>17.79034717225764</v>
+        <v>36.06516087984588</v>
       </c>
       <c r="Q30">
-        <v>2.913094545280688</v>
+        <v>2.607819886270554</v>
       </c>
       <c r="R30">
-        <v>257.9706717559189</v>
+        <v>359.2672758030167</v>
       </c>
       <c r="S30">
-        <v>18.41369249641004</v>
+        <v>13.56943566832532</v>
       </c>
       <c r="T30">
-        <v>9.178460197276868</v>
+        <v>8.547456590506492</v>
       </c>
       <c r="U30">
-        <v>2.216859456061964</v>
+        <v>2.145633763899703</v>
       </c>
       <c r="V30">
-        <v>115.36154921078</v>
+        <v>230.0623216675571</v>
       </c>
       <c r="W30">
-        <v>371.4950899045273</v>
+        <v>208.3102284513842</v>
       </c>
       <c r="X30">
         <v>529.7545707842031</v>
       </c>
       <c r="Y30">
-        <v>219.9589357221308</v>
+        <v>76.43585123717753</v>
       </c>
       <c r="Z30">
-        <v>1.688929293483347</v>
+        <v>2.72529480707954</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>274.4894347998797</v>
+        <v>341.1663979158284</v>
       </c>
       <c r="H31">
-        <v>44.71489195055983</v>
+        <v>53.91416932566145</v>
       </c>
       <c r="I31">
-        <v>229.7745428493199</v>
+        <v>287.252228590167</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>306.7051275693361</v>
+        <v>431.6075349411582</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>0.749170855636821</v>
+        <v>0.66554034704081</v>
       </c>
       <c r="O31">
-        <v>318.3380255521103</v>
+        <v>470.0406820152731</v>
       </c>
       <c r="P31">
-        <v>11.63289798277416</v>
+        <v>38.43314707411493</v>
       </c>
       <c r="Q31">
-        <v>3.309276674502406</v>
+        <v>2.503898956135993</v>
       </c>
       <c r="R31">
-        <v>268.2086496180755</v>
+        <v>335.3748181012608</v>
       </c>
       <c r="S31">
-        <v>27.36532427461334</v>
+        <v>12.23008568902362</v>
       </c>
       <c r="T31">
-        <v>6.138658125426669</v>
+        <v>6.327954268479177</v>
       </c>
       <c r="U31">
-        <v>1.81460617192687</v>
+        <v>1.844977003587023</v>
       </c>
       <c r="V31">
-        <v>148.6346239387909</v>
+        <v>187.7818260168247</v>
       </c>
       <c r="W31">
-        <v>254.6066722884776</v>
+        <v>197.1289865476305</v>
       </c>
       <c r="X31">
         <v>484.3812151377975</v>
       </c>
       <c r="Y31">
-        <v>177.6760875684614</v>
+        <v>52.7736801966393</v>
       </c>
       <c r="Z31">
-        <v>1.432982208089053</v>
+        <v>3.735365542314101</v>
       </c>
     </row>
   </sheetData>
